--- a/outputs/ML_Results/dist_commute/Dresden.xlsx
+++ b/outputs/ML_Results/dist_commute/Dresden.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ57420147" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ57689766" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ57974838" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ58244575" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ58504519" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ58798261" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ59052279" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ59307310" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ59644238" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ52806160" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ53047536" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ53333990" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ53643605" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ53960419" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ54246088" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ54517683" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ54786780" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ55096220" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,7 +501,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -745,7 +745,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -989,7 +989,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1233,7 +1233,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1477,7 +1477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1721,7 +1721,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1965,7 +1965,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2209,7 +2209,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2453,7 +2453,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/outputs/ML_Results/dist_commute/Dresden.xlsx
+++ b/outputs/ML_Results/dist_commute/Dresden.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ52806160" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ53047536" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ53333990" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ53643605" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ53960419" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ54246088" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ54517683" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ54786780" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ55096220" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ38717728" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ38910656" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ39100575" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ39295064" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ39505297" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ39704203" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ39909230" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ40123139" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ40339644" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12068.13384687221</v>
+        <v>12615.2177331632</v>
       </c>
       <c r="C2" t="n">
-        <v>0.013282458878372</v>
+        <v>0.007382183547069186</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2196.546233724384</v>
+        <v>795.9314625905026</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1563738613228633</v>
+        <v>0.748144028948114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2092.520126732481</v>
+        <v>-1395.163350633273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1732809151578431</v>
+        <v>0.1706735689933495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2764.982036607715</v>
+        <v>-152.1229457865236</v>
       </c>
       <c r="C5" t="n">
-        <v>0.294420061473722</v>
+        <v>0.7097969194067716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219.9647077998622</v>
+        <v>596.1892361949447</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1519927272142875</v>
+        <v>0.236051111851852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-951.4682945656633</v>
+        <v>382.1182211309437</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009725711352951567</v>
+        <v>0.5082377781721554</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.596915563185922</v>
+        <v>-157.9323680340192</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8760817019487136</v>
+        <v>0.7628375710996829</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-203.0790657097318</v>
+        <v>-219.8428610379215</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3284774750920578</v>
+        <v>0.153759961571619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.3681129315944</v>
+        <v>-898.9400836464134</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5231944666486006</v>
+        <v>0.01469349639397521</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.006520368182312428</v>
+        <v>-2.486188522730394</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9751100180275944</v>
+        <v>0.8822432774044104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0003482885319314663</v>
+        <v>-184.7873945799372</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1196288260103309</v>
+        <v>0.3756923162624459</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-30.67518569301826</v>
+        <v>125.34152465011</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6869883188697066</v>
+        <v>0.4611539868053507</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.35330308697468</v>
+        <v>-0.0003375328076353212</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6420208398618887</v>
+        <v>0.9987151903777085</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-973.6940822679511</v>
+        <v>-0.0003350847556738093</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7753699266873335</v>
+        <v>0.1340515418543565</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1397.327879963887</v>
+        <v>-17.60835257645895</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7572339832991228</v>
+        <v>0.8172858152438359</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-7.427519159619203</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.71241054797456</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1127.766462427101</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7418170460217088</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-2359.739235797038</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6038030984044536</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-3052.716125311189</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.131658449532134</v>
+      <c r="B20" t="n">
+        <v>-3318.859303037877</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1036875050890894</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +749,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10016.50728234307</v>
+        <v>9459.952623811731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04387601519142417</v>
+        <v>0.04789186066416604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1605.536683185555</v>
+        <v>848.8778795501198</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3671160569725319</v>
+        <v>0.772921509394233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1665.904212132199</v>
+        <v>-667.6307915984696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3466044191594834</v>
+        <v>0.504807244580024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2091.177937121104</v>
+        <v>52.4612794602497</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4900388970810449</v>
+        <v>0.899092155265197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-145.5279220752163</v>
+        <v>919.3718511390497</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3471697251539445</v>
+        <v>0.07379704932239091</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-824.4291641922484</v>
+        <v>601.2037644868603</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02688228969664386</v>
+        <v>0.3062229220422099</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.327451422843678</v>
+        <v>-157.8859123665374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9392384500668296</v>
+        <v>0.7649370146252892</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-76.87884203001643</v>
+        <v>-160.6528647104836</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7163159655877078</v>
+        <v>0.3008937333475137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.45165163229564</v>
+        <v>-800.3638996930401</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6370286668614552</v>
+        <v>0.0314312566561109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02304286332493921</v>
+        <v>-0.5688957995468629</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9141088866539104</v>
+        <v>0.9740352747964396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0002979989639192757</v>
+        <v>-65.98877839804349</v>
       </c>
       <c r="C12" t="n">
-        <v>0.189422607545631</v>
+        <v>0.7556139414692775</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-22.64493090976162</v>
+        <v>108.7942859482101</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7695691830044578</v>
+        <v>0.5284251272303887</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.210669356498812</v>
+        <v>-0.05767528431212865</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7645189345211707</v>
+        <v>0.7877073822700009</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3264.602166726347</v>
+        <v>-0.0002787951706320396</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3406124543675881</v>
+        <v>0.219486510937533</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-628.3734689808982</v>
+        <v>-2.527303437750099</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8899926926669002</v>
+        <v>0.9738774953003819</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1.640126395898296</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9369893960616864</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2959.432833638893</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.388194145973046</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-1626.677455508808</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7208543780308441</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2718.560212363635</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1941934893250273</v>
+      <c r="B20" t="n">
+        <v>-2934.191162189348</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1622302156472932</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1032,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10427.3744965126</v>
+        <v>10046.84423270893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03478079711173392</v>
+        <v>0.03673634483117762</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1795.290340223237</v>
+        <v>-2441.055340032116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.240097243412116</v>
+        <v>0.4084483825771246</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1580.877252744846</v>
+        <v>-442.9952481885397</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2976256764784454</v>
+        <v>0.6721150559959552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-929.8726823337911</v>
+        <v>-177.3826408773276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7782857315718466</v>
+        <v>0.6673514972265491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-94.34074595235795</v>
+        <v>814.8460443860089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.538573309440799</v>
+        <v>0.1091514145477432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-756.9157315953248</v>
+        <v>987.6089178772637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04245036901109728</v>
+        <v>0.09389457906898134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.120584778637435</v>
+        <v>-76.92441028016762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7195190769987032</v>
+        <v>0.8836840772479799</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-26.76966481153731</v>
+        <v>-86.58094804671148</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8989717037531254</v>
+        <v>0.5735505629093132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.0044693765372</v>
+        <v>-700.5810441688324</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6620760172678641</v>
+        <v>0.06016372888065581</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06665244429128013</v>
+        <v>-4.211320985370403</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7572455896943601</v>
+        <v>0.8052603413835884</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0003686882601715855</v>
+        <v>-14.66316495716154</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1039203749177608</v>
+        <v>0.9446358441491892</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-26.78035358272057</v>
+        <v>94.70583838765714</v>
       </c>
       <c r="C13" t="n">
-        <v>0.731391231888886</v>
+        <v>0.5811767428356727</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.579272828112698</v>
+        <v>0.03105530299103394</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7873970680919017</v>
+        <v>0.8860087551175024</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2556.57253440844</v>
+        <v>-0.0003528477810887325</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4536786097887691</v>
+        <v>0.119079538480465</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1867.700862290654</v>
+        <v>-9.117100491011046</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6836032160048796</v>
+        <v>0.906970122135786</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1.576959223304964</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.939304643718279</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2480.474786569102</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4677356440254991</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-2801.588024616022</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5418405614658335</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2825.165586719272</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1719178551963419</v>
+      <c r="B20" t="n">
+        <v>-3051.270901532818</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1418436752745822</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1315,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18030.66664226003</v>
+        <v>17189.96599183718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002729051528419744</v>
+        <v>0.0003652861076483533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1636.029623161421</v>
+        <v>1067.523276051903</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849040481629329</v>
+        <v>0.6686689891079571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1469.90576594228</v>
+        <v>-26.06136535357797</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3318973489947182</v>
+        <v>0.9803033365872447</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2093.569529596361</v>
+        <v>-110.1137453858017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4271565171117218</v>
+        <v>0.7879120121707515</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-125.7521811198985</v>
+        <v>1024.816671934447</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3998332111643099</v>
+        <v>0.04554979641704455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-977.136272892477</v>
+        <v>536.2190781047188</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008604579035598517</v>
+        <v>0.3593822607001317</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.215386281837862</v>
+        <v>-122.2067388443511</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5911934113112374</v>
+        <v>0.8176473410708998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-262.5991693271436</v>
+        <v>-141.6115980499241</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2150178146193896</v>
+        <v>0.3448757024988398</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-97.81007659934974</v>
+        <v>-945.7770266374341</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5656549481336539</v>
+        <v>0.01089933517536806</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.224514001550458</v>
+        <v>-7.662651600159021</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3013097350193864</v>
+        <v>0.6565284926096628</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0004805424438281406</v>
+        <v>-239.0433294474599</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03298404279454201</v>
+        <v>0.2597601991482092</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-122.0031803819381</v>
+        <v>-65.83434573011598</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1134856287995562</v>
+        <v>0.6994105099188193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-32.63476800522213</v>
+        <v>0.1756896858445365</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1177480151839862</v>
+        <v>0.4194886687959791</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3336.618905892054</v>
+        <v>-0.0004561513787701791</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3255480374808175</v>
+        <v>0.04259927428385449</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1644.064068606037</v>
+        <v>-104.4969526016363</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7189498290903354</v>
+        <v>0.1758714152348342</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-28.85279154220287</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1673254675438208</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3370.043120671255</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3223859089506786</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1015.299125076043</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8247975909810992</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-3283.922880045993</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1157957291664055</v>
+      <c r="B20" t="n">
+        <v>-3314.794121694922</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1134781832017201</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1598,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9304.806092713456</v>
+        <v>8997.916129138366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05762168383444747</v>
+        <v>0.05991933341857287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1858.939537116783</v>
+        <v>1911.51156998482</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2150950323322879</v>
+        <v>0.4804306599916437</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1996.554485246479</v>
+        <v>-1011.173027161422</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1794207964849663</v>
+        <v>0.3205065177051206</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3166.425528509034</v>
+        <v>113.6760109575308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2479209105715881</v>
+        <v>0.7823699443747367</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-129.8377095925599</v>
+        <v>745.0372831888076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.389776350149617</v>
+        <v>0.1451249277858921</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-814.1080729604913</v>
+        <v>768.7186924526347</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02905691174108086</v>
+        <v>0.1919321476021053</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.333706163403596</v>
+        <v>65.60179031068685</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7511208107833864</v>
+        <v>0.9027114417412012</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-30.18016799672347</v>
+        <v>-125.7885426423276</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8854890236431188</v>
+        <v>0.4080421203967267</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>205.5654232899975</v>
+        <v>-769.4044441380926</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2281700689383105</v>
+        <v>0.03908598238178462</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05628404429130753</v>
+        <v>-3.950336149987374</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7931419763064208</v>
+        <v>0.8161876084126194</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0004513689217268352</v>
+        <v>-4.411235026698719</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04768125982263716</v>
+        <v>0.9832703861270822</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-9.013535470846369</v>
+        <v>231.2206779175283</v>
       </c>
       <c r="C13" t="n">
-        <v>0.906708965961894</v>
+        <v>0.1757321074399759</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.727632707564993</v>
+        <v>0.0447835724449577</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8561253892187106</v>
+        <v>0.8352327837578652</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3263.38518039805</v>
+        <v>-0.0004367701308824669</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3413663046651344</v>
+        <v>0.05499589902408238</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3257.623506728309</v>
+        <v>8.58203612174384</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4726492018248136</v>
+        <v>0.9112707950574876</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.0491724102933162</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9980974203020307</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3159.101037768881</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3581912677862554</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-4427.178332404637</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3318761196856533</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1854.810369089031</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.36333407902098</v>
+      <c r="B20" t="n">
+        <v>-2105.788020401262</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3037649439457042</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1881,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9440.114127845909</v>
+        <v>9632.348282257246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0537514895574728</v>
+        <v>0.04404178945083996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1935.687557690958</v>
+        <v>4287.686765503546</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1986075582756202</v>
+        <v>0.1489581403325688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1925.010012833592</v>
+        <v>-1448.662010236294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1970720574885405</v>
+        <v>0.1573788223077352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4947.303099180244</v>
+        <v>-83.6165447094989</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08558297180122812</v>
+        <v>0.841206045720431</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-150.7496585436513</v>
+        <v>523.7170223439804</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3222915341356262</v>
+        <v>0.3144076076706905</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-623.5107042169495</v>
+        <v>815.3212695888221</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09506099641793928</v>
+        <v>0.1673270466334355</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.568411604607796</v>
+        <v>-132.1219189701424</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8807825090338239</v>
+        <v>0.8045727841663419</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-157.5305503038373</v>
+        <v>-141.3330053581637</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4603958609965383</v>
+        <v>0.3552427955448445</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.90423107422797</v>
+        <v>-565.3845795668907</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8083317311595758</v>
+        <v>0.1299861419224435</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01338530436947233</v>
+        <v>-1.191333224360287</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9503902666245474</v>
+        <v>0.9448153604143652</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0004878609554230627</v>
+        <v>-141.5046073094447</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03269835011006886</v>
+        <v>0.5077591528032743</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-31.77402325690909</v>
+        <v>55.22871315225485</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6825741467633165</v>
+        <v>0.749207266293288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.125155455505602</v>
+        <v>-0.004989328101010243</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9565390051857985</v>
+        <v>0.9815681963426351</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4217.115022584039</v>
+        <v>-0.000487023629734738</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2286209284084753</v>
+        <v>0.03271073842714793</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-110.8494755854767</v>
+        <v>-9.749428798077645</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9807795023396457</v>
+        <v>0.9001800714608619</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5.322801926347388</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.797127088284533</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4045.828220333403</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.249036598203643</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-1647.522556837069</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7216020367874246</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2042.213320753292</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3167739802749748</v>
+      <c r="B20" t="n">
+        <v>-2457.369423565294</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2302216945841267</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2164,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9987.392994320755</v>
+        <v>9850.802624465616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04720727234971667</v>
+        <v>0.04512369859739139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1986.315843715741</v>
+        <v>928.488749129026</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206283823998884</v>
+        <v>0.7171632047457703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1869.008652517638</v>
+        <v>-527.6312999740055</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2298016906082016</v>
+        <v>0.6119386504003486</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2439.228238709067</v>
+        <v>-87.50811968374995</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3674362532299194</v>
+        <v>0.8352880128777708</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-160.9426264070264</v>
+        <v>988.4833373347026</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2997457507748627</v>
+        <v>0.06214782547126509</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-582.7121818954504</v>
+        <v>1145.140816596023</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1254052731829726</v>
+        <v>0.05735772778231335</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-10.66645166435518</v>
+        <v>-84.72971197112432</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5384568834282704</v>
+        <v>0.876524484667345</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-47.38235077200957</v>
+        <v>-164.406802156844</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8271658948262771</v>
+        <v>0.2924074364210788</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.3653963777481</v>
+        <v>-502.5584812474773</v>
       </c>
       <c r="C10" t="n">
-        <v>0.379371678124005</v>
+        <v>0.1863679245752252</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0002288242780994487</v>
+        <v>-7.761442249592877</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991775952609796</v>
+        <v>0.6558481133103928</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0003029846155440661</v>
+        <v>-30.10789151888481</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1827583126018704</v>
+        <v>0.8895759073638229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-28.12471966244642</v>
+        <v>171.1393426592877</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7215292693409628</v>
+        <v>0.3259171447383539</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.591200474875503</v>
+        <v>-0.0359620935669768</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7937157212924474</v>
+        <v>0.8715391992495374</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1983.471920166829</v>
+        <v>-0.0002825648852314378</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5700284465789733</v>
+        <v>0.2136404021418455</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-798.8657015640392</v>
+        <v>-8.645885289530685</v>
       </c>
       <c r="C16" t="n">
-        <v>0.863341017856981</v>
+        <v>0.9126757674446475</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1.363764455295989</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.949211437442897</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1803.430323235785</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.606593705002089</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-1951.773304069564</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6745494911161074</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2384.107270726438</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2553308790030125</v>
+      <c r="B20" t="n">
+        <v>-2720.512486937053</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1964994140214127</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2447,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15469.31834736761</v>
+        <v>16179.80091724951</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001930087245729816</v>
+        <v>0.0009595561737437773</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2489.880427987636</v>
+        <v>823.3278493531295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1021666718175693</v>
+        <v>0.7468284488543779</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2409.644292217309</v>
+        <v>-826.6226725689905</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1102870363149358</v>
+        <v>0.4194634206022116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2981.998192064425</v>
+        <v>-60.02087490356195</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2641909980692079</v>
+        <v>0.887656112759264</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-217.0718596511115</v>
+        <v>504.8003928864966</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1545277865527883</v>
+        <v>0.3377372119117814</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-573.2540017386052</v>
+        <v>679.5725477733963</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1289030093180298</v>
+        <v>0.258813287075365</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13.39590482850144</v>
+        <v>-229.7527431512343</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4376334857131348</v>
+        <v>0.671044464342754</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-275.8901038886343</v>
+        <v>-213.8916148479043</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1992592787531846</v>
+        <v>0.1623878303402711</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.16171192603971</v>
+        <v>-507.9012170799961</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9254435097113123</v>
+        <v>0.1788032809321823</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0657630601683917</v>
+        <v>-11.32248697806805</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7646816582878864</v>
+        <v>0.5152668703801089</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0003780039273769529</v>
+        <v>-268.1954994089443</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1021694539742229</v>
+        <v>0.2134184463665696</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-81.29492695266795</v>
+        <v>37.19013461168569</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3025631921499277</v>
+        <v>0.8296732933614801</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-32.43724150397375</v>
+        <v>0.04075689354362493</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1244785028536189</v>
+        <v>0.8532282449174198</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3277.038705904411</v>
+        <v>-0.0003661094911179954</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3450970872092566</v>
+        <v>0.1131720823969419</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1085.372400587756</v>
+        <v>-60.17195834901239</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8159201196773942</v>
+        <v>0.4462353164846997</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-28.43407358709302</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1794515715881531</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2940.122953248257</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3987494960168666</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-182.3656749854086</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9689024304623453</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2893.270670857783</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1692927391124533</v>
+      <c r="B20" t="n">
+        <v>-3226.621280892391</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1262958592551694</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2730,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13201.52431524562</v>
+        <v>13813.69945663851</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007117773039432612</v>
+        <v>0.00391577155151708</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1782.016615984121</v>
+        <v>1361.610463764346</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2417980104512634</v>
+        <v>0.5856128114969907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1841.37590681377</v>
+        <v>-1499.795672482736</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2233902059267973</v>
+        <v>0.1438123097127726</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2754.998231637162</v>
+        <v>-16.84191745238553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2960253913378704</v>
+        <v>0.9674398243523658</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-106.5350554450048</v>
+        <v>538.7888957734197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4834015499818778</v>
+        <v>0.2957341600804056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-755.711867544399</v>
+        <v>289.4927971443695</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04180623501205093</v>
+        <v>0.6241358213626573</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.219062052716905</v>
+        <v>-432.6108168904454</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7118798418476295</v>
+        <v>0.418476500393133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-97.04536824876317</v>
+        <v>-117.6928083410972</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6509306995927004</v>
+        <v>0.4414923548748154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.9495645484517</v>
+        <v>-707.1155419785791</v>
       </c>
       <c r="C10" t="n">
-        <v>0.912488936809444</v>
+        <v>0.0570959456650736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06261784309960214</v>
+        <v>-6.461862681514699</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7702090026146038</v>
+        <v>0.7029905797822227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0003408388357246131</v>
+        <v>-82.52632720842789</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1321954132064805</v>
+        <v>0.7015611481039645</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-93.63184313792181</v>
+        <v>2.126181876607447</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2239463055094539</v>
+        <v>0.9901633619329764</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-18.40189782378608</v>
+        <v>0.04414493818319511</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3685870127212368</v>
+        <v>0.837350814177843</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4598.799546740226</v>
+        <v>-0.000326394043321672</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1799157229991903</v>
+        <v>0.1490451867666032</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1909.788190640386</v>
+        <v>-80.17984276919883</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6750313210939918</v>
+        <v>0.2976566164994494</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-16.94632922760762</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4087226614236401</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4319.173997415474</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2102536977948379</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>933.6640116996373</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8385272276359829</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1566.007793023121</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4443788183556476</v>
+      <c r="B20" t="n">
+        <v>-1766.300853972486</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3913813901088122</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Dresden.xlsx
+++ b/outputs/ML_Results/dist_commute/Dresden.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ38717728" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ38910656" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ39100575" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ39295064" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ39505297" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ39704203" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ39909230" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ40123139" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ40339644" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ34277752" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ34463757" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ34662300" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ34857609" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ35051692" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ35250723" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ35444583" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ35689535" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ35880810" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12615.2177331632</v>
+        <v>9608.369253229999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007382183547069186</v>
+        <v>0.02652828107021356</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>795.9314625905026</v>
+        <v>1060.095821453784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.748144028948114</v>
+        <v>0.6684515034177234</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1395.163350633273</v>
+        <v>-1310.492161236778</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1706735689933495</v>
+        <v>0.1978298762874247</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-152.1229457865236</v>
+        <v>-120.9798729637689</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7097969194067716</v>
+        <v>0.7671757270453436</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>596.1892361949447</v>
+        <v>611.0336572096658</v>
       </c>
       <c r="C6" t="n">
-        <v>0.236051111851852</v>
+        <v>0.2248346870416098</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.1182211309437</v>
+        <v>307.8568341579067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5082377781721554</v>
+        <v>0.593110880210314</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-157.9323680340192</v>
+        <v>-147.3801397789412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7628375710996829</v>
+        <v>0.778384341170594</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-219.8428610379215</v>
+        <v>-233.2643451468604</v>
       </c>
       <c r="C9" t="n">
-        <v>0.153759961571619</v>
+        <v>0.1298956128356307</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-898.9400836464134</v>
+        <v>-903.3980581852327</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01469349639397521</v>
+        <v>0.0142729683599878</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.486188522730394</v>
+        <v>-1.359180573146306</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8822432774044104</v>
+        <v>0.9354472260623687</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-184.7873945799372</v>
+        <v>-26.483111258026</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3756923162624459</v>
+        <v>0.8859485162945046</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.34152465011</v>
+        <v>215.7211291730616</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4611539868053507</v>
+        <v>0.1800593070201102</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0003375328076353212</v>
+        <v>-0.1484323382469113</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9987151903777085</v>
+        <v>0.4322471658376409</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003350847556738093</v>
+        <v>-0.0003188228783531803</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1340515418543565</v>
+        <v>0.1538349814232328</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-17.60835257645895</v>
+        <v>-13.14352817125668</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8172858152438359</v>
+        <v>0.863083942755055</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.427519159619203</v>
+        <v>0.0864792773927423</v>
       </c>
       <c r="C17" t="n">
-        <v>0.71241054797456</v>
+        <v>0.996484357374247</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1127.766462427101</v>
+        <v>293.0936838408572</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7418170460217088</v>
+        <v>0.9294894944804717</v>
       </c>
     </row>
     <row r="19">
@@ -687,23 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2359.739235797038</v>
+        <v>368.3883415821197</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6038030984044536</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-3318.859303037877</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1036875050890894</v>
+        <v>0.9305982380499502</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9459.952623811731</v>
+        <v>6780.113703688657</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04789186066416604</v>
+        <v>0.121674475138169</v>
       </c>
     </row>
     <row r="3">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>848.8778795501198</v>
+        <v>1113.355351979172</v>
       </c>
       <c r="C3" t="n">
-        <v>0.772921509394233</v>
+        <v>0.704621940713591</v>
       </c>
     </row>
     <row r="4">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-667.6307915984696</v>
+        <v>-581.9160808641984</v>
       </c>
       <c r="C4" t="n">
-        <v>0.504807244580024</v>
+        <v>0.5604354833746663</v>
       </c>
     </row>
     <row r="5">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.4612794602497</v>
+        <v>74.47006804314586</v>
       </c>
       <c r="C5" t="n">
-        <v>0.899092155265197</v>
+        <v>0.8571005995703673</v>
       </c>
     </row>
     <row r="6">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>919.3718511390497</v>
+        <v>947.1804764403589</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07379704932239091</v>
+        <v>0.06539804880857689</v>
       </c>
     </row>
     <row r="7">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>601.2037644868603</v>
+        <v>557.4874162576973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3062229220422099</v>
+        <v>0.3422240989259194</v>
       </c>
     </row>
     <row r="8">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-157.8859123665374</v>
+        <v>-143.1200806568141</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7649370146252892</v>
+        <v>0.7863997624229641</v>
       </c>
     </row>
     <row r="9">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-160.6528647104836</v>
+        <v>-177.7760237840922</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3008937333475137</v>
+        <v>0.2510307485036153</v>
       </c>
     </row>
     <row r="10">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-800.3638996930401</v>
+        <v>-785.535155500382</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0314312566561109</v>
+        <v>0.03470281344081519</v>
       </c>
     </row>
     <row r="11">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.5688957995468629</v>
+        <v>0.2029846172168739</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9740352747964396</v>
+        <v>0.990733270494504</v>
       </c>
     </row>
     <row r="12">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-65.98877839804349</v>
+        <v>72.62345496135545</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7556139414692775</v>
+        <v>0.6984908513479398</v>
       </c>
     </row>
     <row r="13">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.7942859482101</v>
+        <v>189.056507123514</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5284251272303887</v>
+        <v>0.2456547356775172</v>
       </c>
     </row>
     <row r="14">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.05767528431212865</v>
+        <v>-0.1910539069692433</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7877073822700009</v>
+        <v>0.31937287077161</v>
       </c>
     </row>
     <row r="15">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002787951706320396</v>
+        <v>-0.0002648808398975527</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219486510937533</v>
+        <v>0.24308541401932</v>
       </c>
     </row>
     <row r="16">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.527303437750099</v>
+        <v>3.315336985165793</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9738774953003819</v>
+        <v>0.9656999352072786</v>
       </c>
     </row>
     <row r="17">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.640126395898296</v>
+        <v>5.174329538541908</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9369893960616864</v>
+        <v>0.7975805004807492</v>
       </c>
     </row>
     <row r="18">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2959.432833638893</v>
+        <v>4125.373961361294</v>
       </c>
       <c r="C18" t="n">
-        <v>0.388194145973046</v>
+        <v>0.2152007063706388</v>
       </c>
     </row>
     <row r="19">
@@ -970,23 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1626.677455508808</v>
+        <v>678.4006540628982</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7208543780308441</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-2934.191162189348</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1622302156472932</v>
+        <v>0.873030532148335</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10046.84423270893</v>
+        <v>7314.993942436686</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03673634483117762</v>
+        <v>0.09917247167770386</v>
       </c>
     </row>
     <row r="3">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2441.055340032116</v>
+        <v>-2176.679846784036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4084483825771246</v>
+        <v>0.4604295532755912</v>
       </c>
     </row>
     <row r="4">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-442.9952481885397</v>
+        <v>-382.5875097571173</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6721150559959552</v>
+        <v>0.7146317921477218</v>
       </c>
     </row>
     <row r="5">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-177.3826408773276</v>
+        <v>-165.9042443123255</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6673514972265491</v>
+        <v>0.6877902077001031</v>
       </c>
     </row>
     <row r="6">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>814.8460443860089</v>
+        <v>838.0751749754833</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1091514145477432</v>
+        <v>0.09942538031976779</v>
       </c>
     </row>
     <row r="7">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>987.6089178772637</v>
+        <v>936.4415351506899</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09389457906898134</v>
+        <v>0.1117174529135653</v>
       </c>
     </row>
     <row r="8">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-76.92441028016762</v>
+        <v>-65.35743336343867</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8836840772479799</v>
+        <v>0.9011124280714204</v>
       </c>
     </row>
     <row r="9">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-86.58094804671148</v>
+        <v>-100.7534666262676</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5735505629093132</v>
+        <v>0.5118745942511047</v>
       </c>
     </row>
     <row r="10">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-700.5810441688324</v>
+        <v>-706.6651050023528</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06016372888065581</v>
+        <v>0.0580789271710758</v>
       </c>
     </row>
     <row r="11">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.211320985370403</v>
+        <v>-4.171649178005286</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8052603413835884</v>
+        <v>0.8071488176409718</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-14.66316495716154</v>
+        <v>127.506095757343</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9446358441491892</v>
+        <v>0.497155183457311</v>
       </c>
     </row>
     <row r="13">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>94.70583838765714</v>
+        <v>173.5820354305331</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5811767428356727</v>
+        <v>0.2874191082301537</v>
       </c>
     </row>
     <row r="14">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03105530299103394</v>
+        <v>-0.110103800922039</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8860087551175024</v>
+        <v>0.5708928864915909</v>
       </c>
     </row>
     <row r="15">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003528477810887325</v>
+        <v>-0.0003475156229802488</v>
       </c>
       <c r="C15" t="n">
-        <v>0.119079538480465</v>
+        <v>0.1248868088291403</v>
       </c>
     </row>
     <row r="16">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9.117100491011046</v>
+        <v>-3.499423822703877</v>
       </c>
       <c r="C16" t="n">
-        <v>0.906970122135786</v>
+        <v>0.9641970445648508</v>
       </c>
     </row>
     <row r="17">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.576959223304964</v>
+        <v>5.840392049366763</v>
       </c>
       <c r="C17" t="n">
-        <v>0.939304643718279</v>
+        <v>0.7713362394494763</v>
       </c>
     </row>
     <row r="18">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2480.474786569102</v>
+        <v>3761.511095481088</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4677356440254991</v>
+        <v>0.2550427537722978</v>
       </c>
     </row>
     <row r="19">
@@ -1253,23 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2801.588024616022</v>
+        <v>-344.0099259792992</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5418405614658335</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-3051.270901532818</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1418436752745822</v>
+        <v>0.9359220093128002</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17189.96599183718</v>
+        <v>14178.22785513171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003652861076483533</v>
+        <v>0.001374657271472253</v>
       </c>
     </row>
     <row r="3">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1067.523276051903</v>
+        <v>1338.502369429384</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6686689891079571</v>
+        <v>0.5908995170744145</v>
       </c>
     </row>
     <row r="4">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-26.06136535357797</v>
+        <v>6.125480613094965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9803033365872447</v>
+        <v>0.9953720633146623</v>
       </c>
     </row>
     <row r="5">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-110.1137453858017</v>
+        <v>-92.01645339362743</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7879120121707515</v>
+        <v>0.8221679645531008</v>
       </c>
     </row>
     <row r="6">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1024.816671934447</v>
+        <v>1043.249912608012</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04554979641704455</v>
+        <v>0.04188037246710861</v>
       </c>
     </row>
     <row r="7">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.2190781047188</v>
+        <v>478.694772649722</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3593822607001317</v>
+        <v>0.4126045308247233</v>
       </c>
     </row>
     <row r="8">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-122.2067388443511</v>
+        <v>-113.9430729443553</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8176473410708998</v>
+        <v>0.8298784428334278</v>
       </c>
     </row>
     <row r="9">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-141.6115980499241</v>
+        <v>-156.2293289690766</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3448757024988398</v>
+        <v>0.2967780467604711</v>
       </c>
     </row>
     <row r="10">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-945.7770266374341</v>
+        <v>-943.9439754094292</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01089933517536806</v>
+        <v>0.01110346253160606</v>
       </c>
     </row>
     <row r="11">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.662651600159021</v>
+        <v>-6.512951469617148</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6565284926096628</v>
+        <v>0.7053624908856102</v>
       </c>
     </row>
     <row r="12">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-239.0433294474599</v>
+        <v>-87.19535522672734</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2597601991482092</v>
+        <v>0.6450115929622472</v>
       </c>
     </row>
     <row r="13">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-65.83434573011598</v>
+        <v>15.55548972310508</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6994105099188193</v>
+        <v>0.9238171709924179</v>
       </c>
     </row>
     <row r="14">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1756896858445365</v>
+        <v>0.02033564376981692</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4194886687959791</v>
+        <v>0.9166643345873202</v>
       </c>
     </row>
     <row r="15">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0004561513787701791</v>
+        <v>-0.0004467649129610764</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04259927428385449</v>
+        <v>0.04709785779104305</v>
       </c>
     </row>
     <row r="16">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-104.4969526016363</v>
+        <v>-98.89123548887142</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1758714152348342</v>
+        <v>0.1999947609413979</v>
       </c>
     </row>
     <row r="17">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-28.85279154220287</v>
+        <v>-20.64048603315799</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1673254675438208</v>
+        <v>0.3080598443630901</v>
       </c>
     </row>
     <row r="18">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3370.043120671255</v>
+        <v>4718.252525811509</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3223859089506786</v>
+        <v>0.1528037169727276</v>
       </c>
     </row>
     <row r="19">
@@ -1536,23 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1015.299125076043</v>
+        <v>3748.946509602593</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8247975909810992</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-3314.794121694922</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1134781832017201</v>
+        <v>0.3779729576012787</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8997.916129138366</v>
+        <v>7050.599266354194</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05991933341857287</v>
+        <v>0.1083081296926964</v>
       </c>
     </row>
     <row r="3">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1911.51156998482</v>
+        <v>2099.37289950203</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4804306599916437</v>
+        <v>0.4373424526566494</v>
       </c>
     </row>
     <row r="4">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1011.173027161422</v>
+        <v>-973.5102350705822</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3205065177051206</v>
+        <v>0.3385536460176991</v>
       </c>
     </row>
     <row r="5">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.6760109575308</v>
+        <v>124.6497045954045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7823699443747367</v>
+        <v>0.7618963278581921</v>
       </c>
     </row>
     <row r="6">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>745.0372831888076</v>
+        <v>763.0343686380569</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1451249277858921</v>
+        <v>0.1354449339325511</v>
       </c>
     </row>
     <row r="7">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>768.7186924526347</v>
+        <v>736.1766153976137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1919321476021053</v>
+        <v>0.2107674678157398</v>
       </c>
     </row>
     <row r="8">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65.60179031068685</v>
+        <v>72.77482407571114</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9027114417412012</v>
+        <v>0.8921291434879567</v>
       </c>
     </row>
     <row r="9">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-125.7885426423276</v>
+        <v>-134.6247841223578</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4080421203967267</v>
+        <v>0.3751652980179313</v>
       </c>
     </row>
     <row r="10">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-769.4044441380926</v>
+        <v>-771.8672696488292</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03908598238178462</v>
+        <v>0.03846471545567078</v>
       </c>
     </row>
     <row r="11">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.950336149987374</v>
+        <v>-3.379887814808225</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8161876084126194</v>
+        <v>0.8422738033890661</v>
       </c>
     </row>
     <row r="12">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.411235026698719</v>
+        <v>94.42939352784211</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9832703861270822</v>
+        <v>0.6138747661399609</v>
       </c>
     </row>
     <row r="13">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>231.2206779175283</v>
+        <v>286.6431476207034</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1757321074399759</v>
+        <v>0.07698039577042508</v>
       </c>
     </row>
     <row r="14">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0447835724449577</v>
+        <v>-0.04999487622743858</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8352327837578652</v>
+        <v>0.7972514123477231</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0004367701308824669</v>
+        <v>-0.0004315447192587264</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05499589902408238</v>
+        <v>0.05790536025394541</v>
       </c>
     </row>
     <row r="16">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.58203612174384</v>
+        <v>12.28277996772766</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9112707950574876</v>
+        <v>0.8731495882244088</v>
       </c>
     </row>
     <row r="17">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0491724102933162</v>
+        <v>5.154046703899832</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9980974203020307</v>
+        <v>0.7965581831407988</v>
       </c>
     </row>
     <row r="18">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3159.101037768881</v>
+        <v>4048.756161766617</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3581912677862554</v>
+        <v>0.2237861641084563</v>
       </c>
     </row>
     <row r="19">
@@ -1819,23 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4427.178332404637</v>
+        <v>-2724.1086674237</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3318761196856533</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-2105.788020401262</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3037649439457042</v>
+        <v>0.5216407922376736</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9632.348282257246</v>
+        <v>7312.852404589503</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04404178945083996</v>
+        <v>0.09458647449742158</v>
       </c>
     </row>
     <row r="3">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4287.686765503546</v>
+        <v>4428.303348904552</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1489581403325688</v>
+        <v>0.1358566080333404</v>
       </c>
     </row>
     <row r="4">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1448.662010236294</v>
+        <v>-1387.430149379947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1573788223077352</v>
+        <v>0.1752071404353701</v>
       </c>
     </row>
     <row r="5">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-83.6165447094989</v>
+        <v>-60.84901620985715</v>
       </c>
       <c r="C5" t="n">
-        <v>0.841206045720431</v>
+        <v>0.8839818967886359</v>
       </c>
     </row>
     <row r="6">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>523.7170223439804</v>
+        <v>540.7286634670044</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3144076076706905</v>
+        <v>0.2988620752183697</v>
       </c>
     </row>
     <row r="7">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>815.3212695888221</v>
+        <v>775.5264720762299</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1673270466334355</v>
+        <v>0.188397929119396</v>
       </c>
     </row>
     <row r="8">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-132.1219189701424</v>
+        <v>-122.3887362875682</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8045727841663419</v>
+        <v>0.8187207358058108</v>
       </c>
     </row>
     <row r="9">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-141.3330053581637</v>
+        <v>-154.6451147708898</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3552427955448445</v>
+        <v>0.3105844438084462</v>
       </c>
     </row>
     <row r="10">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-565.3845795668907</v>
+        <v>-561.0216653865471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1299861419224435</v>
+        <v>0.1330243002436036</v>
       </c>
     </row>
     <row r="11">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.191333224360287</v>
+        <v>-0.3200727863726094</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9448153604143652</v>
+        <v>0.9851521546991313</v>
       </c>
     </row>
     <row r="12">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-141.5046073094447</v>
+        <v>-22.83463907545509</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5077591528032743</v>
+        <v>0.9040374220224838</v>
       </c>
     </row>
     <row r="13">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.22871315225485</v>
+        <v>120.5698128925012</v>
       </c>
       <c r="C13" t="n">
-        <v>0.749207266293288</v>
+        <v>0.4622313980338644</v>
       </c>
     </row>
     <row r="14">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.004989328101010243</v>
+        <v>-0.1211293683718404</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9815681963426351</v>
+        <v>0.5305059232279443</v>
       </c>
     </row>
     <row r="15">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.000487023629734738</v>
+        <v>-0.0004723369565580567</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03271073842714793</v>
+        <v>0.03808449633933095</v>
       </c>
     </row>
     <row r="16">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9.749428798077645</v>
+        <v>-5.045099439191233</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9001800714608619</v>
+        <v>0.9481898377559548</v>
       </c>
     </row>
     <row r="17">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.322801926347388</v>
+        <v>11.46566442414424</v>
       </c>
       <c r="C17" t="n">
-        <v>0.797127088284533</v>
+        <v>0.5677688431066101</v>
       </c>
     </row>
     <row r="18">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4045.828220333403</v>
+        <v>5026.12998297089</v>
       </c>
       <c r="C18" t="n">
-        <v>0.249036598203643</v>
+        <v>0.1410433084757158</v>
       </c>
     </row>
     <row r="19">
@@ -2102,23 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1647.522556837069</v>
+        <v>374.8730163598275</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7216020367874246</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-2457.369423565294</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.2302216945841267</v>
+        <v>0.9306313747885266</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9850.802624465616</v>
+        <v>7282.77943063394</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04512369859739139</v>
+        <v>0.1052967648626526</v>
       </c>
     </row>
     <row r="3">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>928.488749129026</v>
+        <v>1157.137717339695</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7171632047457703</v>
+        <v>0.650974451364531</v>
       </c>
     </row>
     <row r="4">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-527.6312999740055</v>
+        <v>-444.3229352221072</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6119386504003486</v>
+        <v>0.6687091429342134</v>
       </c>
     </row>
     <row r="5">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-87.50811968374995</v>
+        <v>-76.969233274841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8352880128777708</v>
+        <v>0.8549019445439197</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4833373347026</v>
+        <v>1014.469712694916</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06214782547126509</v>
+        <v>0.055485557159679</v>
       </c>
     </row>
     <row r="7">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1145.140816596023</v>
+        <v>1100.523143881254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05735772778231335</v>
+        <v>0.06737990718584706</v>
       </c>
     </row>
     <row r="8">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-84.72971197112432</v>
+        <v>-73.3644941092719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.876524484667345</v>
+        <v>0.8929948810588413</v>
       </c>
     </row>
     <row r="9">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-164.406802156844</v>
+        <v>-176.601491220261</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2924074364210788</v>
+        <v>0.257353636023868</v>
       </c>
     </row>
     <row r="10">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-502.5584812474773</v>
+        <v>-509.4096646458351</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1863679245752252</v>
+        <v>0.1805179847226966</v>
       </c>
     </row>
     <row r="11">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.761442249592877</v>
+        <v>-7.007683399004335</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6558481133103928</v>
+        <v>0.6873230419502295</v>
       </c>
     </row>
     <row r="12">
@@ -2294,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-30.10789151888481</v>
+        <v>99.34773009145158</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8895759073638229</v>
+        <v>0.6055639477094557</v>
       </c>
     </row>
     <row r="13">
@@ -2307,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.1393426592877</v>
+        <v>240.8746000704797</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3259171447383539</v>
+        <v>0.1460846939851321</v>
       </c>
     </row>
     <row r="14">
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0359620935669768</v>
+        <v>-0.1605753901205992</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8715391992495374</v>
+        <v>0.4231437177238788</v>
       </c>
     </row>
     <row r="15">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002825648852314378</v>
+        <v>-0.0002734688547248351</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2136404021418455</v>
+        <v>0.228645833843995</v>
       </c>
     </row>
     <row r="16">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-8.645885289530685</v>
+        <v>-3.389342372522226</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9126757674446475</v>
+        <v>0.9656729568927344</v>
       </c>
     </row>
     <row r="17">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.363764455295989</v>
+        <v>5.713343951801946</v>
       </c>
       <c r="C17" t="n">
-        <v>0.949211437442897</v>
+        <v>0.7825802241900763</v>
       </c>
     </row>
     <row r="18">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1803.430323235785</v>
+        <v>2950.06903474458</v>
       </c>
       <c r="C18" t="n">
-        <v>0.606593705002089</v>
+        <v>0.3840588853054148</v>
       </c>
     </row>
     <row r="19">
@@ -2385,23 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1951.773304069564</v>
+        <v>252.9446832899473</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6745494911161074</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-2720.512486937053</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1964994140214127</v>
+        <v>0.9533575602672779</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16179.80091724951</v>
+        <v>13337.80444509909</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009595561737437773</v>
+        <v>0.003253974894068962</v>
       </c>
     </row>
     <row r="3">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>823.3278493531295</v>
+        <v>1071.5727957985</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7468284488543779</v>
+        <v>0.6739198680607804</v>
       </c>
     </row>
     <row r="4">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-826.6226725689905</v>
+        <v>-763.9835244985603</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4194634206022116</v>
+        <v>0.4554420673560684</v>
       </c>
     </row>
     <row r="5">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-60.02087490356195</v>
+        <v>-46.65979171925954</v>
       </c>
       <c r="C5" t="n">
-        <v>0.887656112759264</v>
+        <v>0.9125795224331383</v>
       </c>
     </row>
     <row r="6">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>504.8003928864966</v>
+        <v>513.4719587409659</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3377372119117814</v>
+        <v>0.3297463560100672</v>
       </c>
     </row>
     <row r="7">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.5725477733963</v>
+        <v>638.0116419197186</v>
       </c>
       <c r="C7" t="n">
-        <v>0.258813287075365</v>
+        <v>0.2888396756675856</v>
       </c>
     </row>
     <row r="8">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-229.7527431512343</v>
+        <v>-227.7595060970959</v>
       </c>
       <c r="C8" t="n">
-        <v>0.671044464342754</v>
+        <v>0.6739018186947257</v>
       </c>
     </row>
     <row r="9">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-213.8916148479043</v>
+        <v>-228.7681623196863</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1623878303402711</v>
+        <v>0.1345583255472953</v>
       </c>
     </row>
     <row r="10">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-507.9012170799961</v>
+        <v>-527.3325570372938</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1788032809321823</v>
+        <v>0.1627557622134084</v>
       </c>
     </row>
     <row r="11">
@@ -2564,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11.32248697806805</v>
+        <v>-11.12870355009493</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5152668703801089</v>
+        <v>0.522700632265662</v>
       </c>
     </row>
     <row r="12">
@@ -2577,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-268.1954994089443</v>
+        <v>-119.1227328129359</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2134184463665696</v>
+        <v>0.5356268258870895</v>
       </c>
     </row>
     <row r="13">
@@ -2590,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.19013461168569</v>
+        <v>120.2364343147341</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8296732933614801</v>
+        <v>0.4641245187205011</v>
       </c>
     </row>
     <row r="14">
@@ -2603,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04075689354362493</v>
+        <v>-0.1057770034068735</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8532282449174198</v>
+        <v>0.5941288739958863</v>
       </c>
     </row>
     <row r="15">
@@ -2616,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003661094911179954</v>
+        <v>-0.0003621003106085185</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1131720823969419</v>
+        <v>0.1173482255408159</v>
       </c>
     </row>
     <row r="16">
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-60.17195834901239</v>
+        <v>-55.92066223852262</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4462353164846997</v>
+        <v>0.4789772383061419</v>
       </c>
     </row>
     <row r="17">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-28.43407358709302</v>
+        <v>-20.76771536717373</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1794515715881531</v>
+        <v>0.3130778411397127</v>
       </c>
     </row>
     <row r="18">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2940.122953248257</v>
+        <v>4322.789605767101</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3987494960168666</v>
+        <v>0.1992308173872433</v>
       </c>
     </row>
     <row r="19">
@@ -2668,23 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-182.3656749854086</v>
+        <v>2524.441869597539</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9689024304623453</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-3226.621280892391</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1262958592551694</v>
+        <v>0.5601497635786314</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13813.69945663851</v>
+        <v>12160.6039723738</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00391577155151708</v>
+        <v>0.005500324989901609</v>
       </c>
     </row>
     <row r="3">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1361.610463764346</v>
+        <v>1506.127738630056</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5856128114969907</v>
+        <v>0.5455062339827179</v>
       </c>
     </row>
     <row r="4">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1499.795672482736</v>
+        <v>-1457.753363261612</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1438123097127726</v>
+        <v>0.1548574163322654</v>
       </c>
     </row>
     <row r="5">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-16.84191745238553</v>
+        <v>-2.643363958318957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9674398243523658</v>
+        <v>0.9948835620519364</v>
       </c>
     </row>
     <row r="6">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>538.7888957734197</v>
+        <v>555.6636846039842</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2957341600804056</v>
+        <v>0.2804698312517625</v>
       </c>
     </row>
     <row r="7">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289.4927971443695</v>
+        <v>257.2607751697717</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6241358213626573</v>
+        <v>0.6625624696907565</v>
       </c>
     </row>
     <row r="8">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-432.6108168904454</v>
+        <v>-421.1395013515601</v>
       </c>
       <c r="C8" t="n">
-        <v>0.418476500393133</v>
+        <v>0.4307246222643267</v>
       </c>
     </row>
     <row r="9">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-117.6928083410972</v>
+        <v>-125.8090174879819</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4414923548748154</v>
+        <v>0.4097062470230906</v>
       </c>
     </row>
     <row r="10">
@@ -2834,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-707.1155419785791</v>
+        <v>-707.2368537679188</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0570959456650736</v>
+        <v>0.05702607042342973</v>
       </c>
     </row>
     <row r="11">
@@ -2847,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.461862681514699</v>
+        <v>-6.016053623546841</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7029905797822227</v>
+        <v>0.722448058281761</v>
       </c>
     </row>
     <row r="12">
@@ -2860,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-82.52632720842789</v>
+        <v>4.337321557329261</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7015611481039645</v>
+        <v>0.9817871459204212</v>
       </c>
     </row>
     <row r="13">
@@ -2873,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.126181876607447</v>
+        <v>51.14228888124302</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9901633619329764</v>
+        <v>0.753249905456065</v>
       </c>
     </row>
     <row r="14">
@@ -2886,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04414493818319511</v>
+        <v>-0.03649252035514203</v>
       </c>
       <c r="C14" t="n">
-        <v>0.837350814177843</v>
+        <v>0.8503037524739152</v>
       </c>
     </row>
     <row r="15">
@@ -2899,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.000326394043321672</v>
+        <v>-0.000313972810608717</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1490451867666032</v>
+        <v>0.1642088159754599</v>
       </c>
     </row>
     <row r="16">
@@ -2912,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-80.17984276919883</v>
+        <v>-77.37395637940345</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2976566164994494</v>
+        <v>0.3143862146624681</v>
       </c>
     </row>
     <row r="17">
@@ -2925,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-16.94632922760762</v>
+        <v>-12.74910313570064</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4087226614236401</v>
+        <v>0.5220830887415211</v>
       </c>
     </row>
     <row r="18">
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4319.173997415474</v>
+        <v>5065.48778420169</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2102536977948379</v>
+        <v>0.1288778501901627</v>
       </c>
     </row>
     <row r="19">
@@ -2951,23 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>933.6640116996373</v>
+        <v>2391.495870888664</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8385272276359829</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-1766.300853972486</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3913813901088122</v>
+        <v>0.574019113245829</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Dresden.xlsx
+++ b/outputs/ML_Results/dist_commute/Dresden.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ34277752" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ34463757" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ34662300" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ34857609" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ35051692" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ35250723" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ35444583" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ35689535" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ35880810" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ36192251" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ36918241" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ37657817" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ38405107" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ39153922" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ39898314" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ40641445" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ41382860" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ42109900" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9608.369253229999</v>
+        <v>15798.35021830113</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02652828107021356</v>
+        <v>0.00130826880168344</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1060.095821453784</v>
+        <v>562.8307490067863</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6684515034177234</v>
+        <v>0.8454668248672412</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1310.492161236778</v>
+        <v>-560.15223966082</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1978298762874247</v>
+        <v>0.625461169767267</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-120.9798729637689</v>
+        <v>111.8979555213356</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7671757270453436</v>
+        <v>0.8062841891896975</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>611.0336572096658</v>
+        <v>740.386716656194</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2248346870416098</v>
+        <v>0.1986027822271912</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.8568341579067</v>
+        <v>932.7129093378437</v>
       </c>
       <c r="C7" t="n">
-        <v>0.593110880210314</v>
+        <v>0.151350790010013</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-147.3801397789412</v>
+        <v>-474.8066959137167</v>
       </c>
       <c r="C8" t="n">
-        <v>0.778384341170594</v>
+        <v>0.428763974701366</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-233.2643451468604</v>
+        <v>-270.2673933516769</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1298956128356307</v>
+        <v>0.1188050938073003</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-903.3980581852327</v>
+        <v>-1386.041768157643</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0142729683599878</v>
+        <v>0.0008832822431683281</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.359180573146306</v>
+        <v>-5.388487766076555</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9354472260623687</v>
+        <v>0.7798790914025253</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-26.483111258026</v>
+        <v>-213.5848007078486</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8859485162945046</v>
+        <v>0.2996893857094242</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>215.7211291730616</v>
+        <v>30.87729363056673</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1800593070201102</v>
+        <v>0.8641278679038458</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1484323382469113</v>
+        <v>-0.0930102734664629</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4322471658376409</v>
+        <v>0.6563185785001752</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003188228783531803</v>
+        <v>-0.0003085715823923598</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1538349814232328</v>
+        <v>0.2251786441166439</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-13.14352817125668</v>
+        <v>-69.36795773823057</v>
       </c>
       <c r="C16" t="n">
-        <v>0.863083942755055</v>
+        <v>0.4305863342009894</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0864792773927423</v>
+        <v>-20.85727137847624</v>
       </c>
       <c r="C17" t="n">
-        <v>0.996484357374247</v>
+        <v>0.3538124255119793</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>293.0936838408572</v>
+        <v>162.673375970327</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9294894944804717</v>
+        <v>0.9655109709105607</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>368.3883415821197</v>
+        <v>3475.300947910908</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9305982380499502</v>
+        <v>0.4635257823796862</v>
       </c>
     </row>
   </sheetData>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6780.113703688657</v>
+        <v>14557.98379920083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.121674475138169</v>
+        <v>0.003362134452047049</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1113.355351979172</v>
+        <v>786.2842400043954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.704621940713591</v>
+        <v>0.7877650948405135</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-581.9160808641984</v>
+        <v>-927.299725116537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5604354833746663</v>
+        <v>0.4299123495317949</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74.47006804314586</v>
+        <v>-95.9529382550931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8571005995703673</v>
+        <v>0.8376607197467728</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>947.1804764403589</v>
+        <v>406.3575882667608</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06539804880857689</v>
+        <v>0.480420076060219</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>557.4874162576973</v>
+        <v>774.2794954361593</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3422240989259194</v>
+        <v>0.235208026676025</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-143.1200806568141</v>
+        <v>-532.1044316832113</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7863997624229641</v>
+        <v>0.3784715354508292</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-177.7760237840922</v>
+        <v>-345.7846508237296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2510307485036153</v>
+        <v>0.04522045409866911</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-785.535155500382</v>
+        <v>-830.6100833329418</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03470281344081519</v>
+        <v>0.04748865951578837</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2029846172168739</v>
+        <v>-16.10584011838853</v>
       </c>
       <c r="C11" t="n">
-        <v>0.990733270494504</v>
+        <v>0.4061094070738397</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>72.62345496135545</v>
+        <v>-40.04810611163168</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6984908513479398</v>
+        <v>0.8544263511750344</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.056507123514</v>
+        <v>-52.64721212442679</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2456547356775172</v>
+        <v>0.7800015069069096</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1910539069692433</v>
+        <v>-0.1331511738240725</v>
       </c>
       <c r="C14" t="n">
-        <v>0.31937287077161</v>
+        <v>0.5304939375853123</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002648808398975527</v>
+        <v>-0.0006406548880680535</v>
       </c>
       <c r="C15" t="n">
-        <v>0.24308541401932</v>
+        <v>0.01135507107442814</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.315336985165793</v>
+        <v>-46.12986449269653</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9656999352072786</v>
+        <v>0.6029461613440426</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.174329538541908</v>
+        <v>-5.509049006263432</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7975805004807492</v>
+        <v>0.8086565454960186</v>
       </c>
     </row>
     <row r="18">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4125.373961361294</v>
+        <v>4842.742939705791</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2152007063706388</v>
+        <v>0.2060892200354891</v>
       </c>
     </row>
     <row r="19">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>678.4006540628982</v>
+        <v>1404.219077379102</v>
       </c>
       <c r="C19" t="n">
-        <v>0.873030532148335</v>
+        <v>0.7716890431535443</v>
       </c>
     </row>
   </sheetData>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7314.993942436686</v>
+        <v>18313.71709205536</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09917247167770386</v>
+        <v>0.0001910245975573925</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2176.679846784036</v>
+        <v>391.1234072885252</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4604295532755912</v>
+        <v>0.8912878647388535</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-382.5875097571173</v>
+        <v>-598.048158704386</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7146317921477218</v>
+        <v>0.5962160515981906</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-165.9042443123255</v>
+        <v>-234.0375221088433</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6877902077001031</v>
+        <v>0.6011166723994186</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>838.0751749754833</v>
+        <v>420.0042115980208</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09942538031976779</v>
+        <v>0.4578405300905012</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>936.4415351506899</v>
+        <v>393.1426767062612</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1117174529135653</v>
+        <v>0.5425460147116894</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-65.35743336343867</v>
+        <v>-686.3891399199457</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9011124280714204</v>
+        <v>0.2442330405777726</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-100.7534666262676</v>
+        <v>-65.30109199047011</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5118745942511047</v>
+        <v>0.7059636211648029</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-706.6651050023528</v>
+        <v>-1153.93719733207</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0580789271710758</v>
+        <v>0.004972709813555206</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.171649178005286</v>
+        <v>-2.480590549335599</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8071488176409718</v>
+        <v>0.8954885386036695</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.506095757343</v>
+        <v>-244.1892314297187</v>
       </c>
       <c r="C12" t="n">
-        <v>0.497155183457311</v>
+        <v>0.2465325962053486</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.5820354305331</v>
+        <v>-175.4564482771578</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2874191082301537</v>
+        <v>0.335880703230064</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.110103800922039</v>
+        <v>0.04320798371999343</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5708928864915909</v>
+        <v>0.8324873622476835</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003475156229802488</v>
+        <v>-0.0007912823754953979</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1248868088291403</v>
+        <v>0.001505586904122316</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.499423822703877</v>
+        <v>-97.31458136700955</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9641970445648508</v>
+        <v>0.271230580929042</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.840392049366763</v>
+        <v>-26.54167284226201</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7713362394494763</v>
+        <v>0.2393222625767866</v>
       </c>
     </row>
     <row r="18">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3761.511095481088</v>
+        <v>4737.536811591177</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2550427537722978</v>
+        <v>0.2023029059219665</v>
       </c>
     </row>
     <row r="19">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-344.0099259792992</v>
+        <v>2793.118701629709</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9359220093128002</v>
+        <v>0.560261572679593</v>
       </c>
     </row>
   </sheetData>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14178.22785513171</v>
+        <v>19959.47676704017</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001374657271472253</v>
+        <v>6.979625821589904e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1338.502369429384</v>
+        <v>-662.4802440838935</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5908995170744145</v>
+        <v>0.8497731365610367</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.125480613094965</v>
+        <v>-1542.633041352448</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9953720633146623</v>
+        <v>0.1856290158524664</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-92.01645339362743</v>
+        <v>-200.4256213139308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8221679645531008</v>
+        <v>0.6731265012286742</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1043.249912608012</v>
+        <v>278.9456213839128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04188037246710861</v>
+        <v>0.6373746625892838</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.694772649722</v>
+        <v>421.4485816272693</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4126045308247233</v>
+        <v>0.5233245409114219</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-113.9430729443553</v>
+        <v>-896.4804001119302</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8298784428334278</v>
+        <v>0.1462162803338491</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-156.2293289690766</v>
+        <v>-276.539824507841</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2967780467604711</v>
+        <v>0.1148045610599562</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-943.9439754094292</v>
+        <v>-960.8113534526498</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01110346253160606</v>
+        <v>0.02443334422959999</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.512951469617148</v>
+        <v>-3.129595691309153</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7053624908856102</v>
+        <v>0.8756303527454611</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-87.19535522672734</v>
+        <v>-273.3448770014999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6450115929622472</v>
+        <v>0.2081673136724192</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.55548972310508</v>
+        <v>-73.08186901775241</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9238171709924179</v>
+        <v>0.6984529078072452</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02033564376981692</v>
+        <v>-0.1775170118733459</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9166643345873202</v>
+        <v>0.4106338087292304</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0004467649129610764</v>
+        <v>-0.0005464673990377193</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04709785779104305</v>
+        <v>0.03472697935034761</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-98.89123548887142</v>
+        <v>-90.18711057363005</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1999947609413979</v>
+        <v>0.3218239108761586</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-20.64048603315799</v>
+        <v>-34.81098286108484</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3080598443630901</v>
+        <v>0.1328417700065999</v>
       </c>
     </row>
     <row r="18">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4718.252525811509</v>
+        <v>2716.236611685341</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1528037169727276</v>
+        <v>0.4822820505296171</v>
       </c>
     </row>
     <row r="19">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3748.946509602593</v>
+        <v>4074.072655283376</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3779729576012787</v>
+        <v>0.4079672752768821</v>
       </c>
     </row>
   </sheetData>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7050.599266354194</v>
+        <v>17243.2019954595</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1083081296926964</v>
+        <v>0.0004877496057347425</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2099.37289950203</v>
+        <v>731.5651276446889</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4373424526566494</v>
+        <v>0.803612568632104</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-973.5102350705822</v>
+        <v>-1787.546224580489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3385536460176991</v>
+        <v>0.1229154032979477</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>124.6497045954045</v>
+        <v>-127.2975276919486</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7618963278581921</v>
+        <v>0.7857418987171426</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>763.0343686380569</v>
+        <v>990.8809324009993</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1354449339325511</v>
+        <v>0.09482423815889865</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>736.1766153976137</v>
+        <v>1123.018092510615</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2107674678157398</v>
+        <v>0.08870135113087714</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.77482407571114</v>
+        <v>-273.0259492823749</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8921291434879567</v>
+        <v>0.6541413040940165</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-134.6247841223578</v>
+        <v>-399.0267471389188</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3751652980179313</v>
+        <v>0.02009560828606623</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-771.8672696488292</v>
+        <v>-979.5508816996276</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03846471545567078</v>
+        <v>0.02043481534075004</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.379887814808225</v>
+        <v>-21.17024929310397</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8422738033890661</v>
+        <v>0.2771452835119815</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>94.42939352784211</v>
+        <v>-140.0895105694069</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6138747661399609</v>
+        <v>0.5145340839975223</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>286.6431476207034</v>
+        <v>-40.37841133466986</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07698039577042508</v>
+        <v>0.8268270482416007</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.04999487622743858</v>
+        <v>-0.05034595189891523</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7972514123477231</v>
+        <v>0.8126162481186034</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0004315447192587264</v>
+        <v>-0.0002882956608582873</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05790536025394541</v>
+        <v>0.2684772547134719</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.28277996772766</v>
+        <v>-107.887762446373</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8731495882244088</v>
+        <v>0.2249510773887549</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.154046703899832</v>
+        <v>-19.08903693275545</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7965581831407988</v>
+        <v>0.4019668594072798</v>
       </c>
     </row>
     <row r="18">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4048.756161766617</v>
+        <v>1588.011150154118</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2237861641084563</v>
+        <v>0.6802606108401488</v>
       </c>
     </row>
     <row r="19">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2724.1086674237</v>
+        <v>4183.757835958642</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5216407922376736</v>
+        <v>0.3848435791684052</v>
       </c>
     </row>
   </sheetData>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7312.852404589503</v>
+        <v>19125.08858596341</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09458647449742158</v>
+        <v>0.0001238257061071308</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4428.303348904552</v>
+        <v>1297.593615340677</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1358566080333404</v>
+        <v>0.6835240060749659</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1387.430149379947</v>
+        <v>-1101.745070786171</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1752071404353701</v>
+        <v>0.3271434065838468</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-60.84901620985715</v>
+        <v>-47.16975772618957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8839818967886359</v>
+        <v>0.9195580517896391</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.7286634670044</v>
+        <v>188.1008635503797</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2988620752183697</v>
+        <v>0.749367922429566</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>775.5264720762299</v>
+        <v>637.1627552579998</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188397929119396</v>
+        <v>0.3371601273776612</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-122.3887362875682</v>
+        <v>-831.0905669563322</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8187207358058108</v>
+        <v>0.1704872044043855</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-154.6451147708898</v>
+        <v>-189.0544138895315</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3105844438084462</v>
+        <v>0.2710201382217571</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-561.0216653865471</v>
+        <v>-993.6220770430151</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1330243002436036</v>
+        <v>0.01902199437739283</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.3200727863726094</v>
+        <v>-8.710202784224187</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9851521546991313</v>
+        <v>0.655389224617158</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-22.83463907545509</v>
+        <v>-233.2324942685649</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9040374220224838</v>
+        <v>0.2790064693895269</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120.5698128925012</v>
+        <v>-153.2466663924851</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4622313980338644</v>
+        <v>0.403818483884378</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1211293683718404</v>
+        <v>-0.03671804653782298</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5305059232279443</v>
+        <v>0.8640274851381919</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0004723369565580567</v>
+        <v>-0.0006745659862598608</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03808449633933095</v>
+        <v>0.007918786064973492</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5.045099439191233</v>
+        <v>-110.0904790151704</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9481898377559548</v>
+        <v>0.2173254123676986</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.46566442414424</v>
+        <v>-26.72841145777673</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5677688431066101</v>
+        <v>0.2504374740292321</v>
       </c>
     </row>
     <row r="18">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5026.12998297089</v>
+        <v>5978.899811934401</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1410433084757158</v>
+        <v>0.1245193812490604</v>
       </c>
     </row>
     <row r="19">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>374.8730163598275</v>
+        <v>3302.084322006015</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9306313747885266</v>
+        <v>0.4926246248854456</v>
       </c>
     </row>
   </sheetData>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7282.77943063394</v>
+        <v>14861.41128022537</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1052967648626526</v>
+        <v>0.00231013492066347</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1157.137717339695</v>
+        <v>130.637641648187</v>
       </c>
       <c r="C3" t="n">
-        <v>0.650974451364531</v>
+        <v>0.9641533061698273</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-444.3229352221072</v>
+        <v>-1534.439160091352</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6687091429342134</v>
+        <v>0.2070756026304187</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-76.969233274841</v>
+        <v>-352.9940018516627</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8549019445439197</v>
+        <v>0.4423094762402402</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1014.469712694916</v>
+        <v>632.8734144110139</v>
       </c>
       <c r="C6" t="n">
-        <v>0.055485557159679</v>
+        <v>0.2749953287019866</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1100.523143881254</v>
+        <v>806.9416065000462</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06737990718584706</v>
+        <v>0.220499105794987</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-73.3644941092719</v>
+        <v>-478.3135979080709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8929948810588413</v>
+        <v>0.4256729913189803</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-176.601491220261</v>
+        <v>-210.9633549330339</v>
       </c>
       <c r="C9" t="n">
-        <v>0.257353636023868</v>
+        <v>0.2172235248696477</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-509.4096646458351</v>
+        <v>-958.4876034046493</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1805179847226966</v>
+        <v>0.02161633247123561</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.007683399004335</v>
+        <v>-39.833998682025</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6873230419502295</v>
+        <v>0.03916316702861192</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.34773009145158</v>
+        <v>-216.4757582646897</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6055639477094557</v>
+        <v>0.3042318502060045</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>240.8746000704797</v>
+        <v>0.1675194050153319</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1460846939851321</v>
+        <v>0.9992589566296759</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1605753901205992</v>
+        <v>-0.1792879044566663</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4231437177238788</v>
+        <v>0.3935055212930334</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002734688547248351</v>
+        <v>-0.000635010967128204</v>
       </c>
       <c r="C15" t="n">
-        <v>0.228645833843995</v>
+        <v>0.0116152261230023</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.389342372522226</v>
+        <v>-25.96750825021268</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9656729568927344</v>
+        <v>0.7661497334747684</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.713343951801946</v>
+        <v>-4.167493503360301</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7825802241900763</v>
+        <v>0.8534217481335622</v>
       </c>
     </row>
     <row r="18">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2950.06903474458</v>
+        <v>4869.526333188998</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3840588853054148</v>
+        <v>0.202776206933706</v>
       </c>
     </row>
     <row r="19">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>252.9446832899473</v>
+        <v>1779.955659586845</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9533575602672779</v>
+        <v>0.7099776931354955</v>
       </c>
     </row>
   </sheetData>
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13337.80444509909</v>
+        <v>18960.3107146841</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003253974894068962</v>
+        <v>9.994742122128452e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1071.5727957985</v>
+        <v>-628.4482688805256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6739198680607804</v>
+        <v>0.8848756472192159</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-763.9835244985603</v>
+        <v>-642.4350973768777</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4554420673560684</v>
+        <v>0.5911993599948975</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-46.65979171925954</v>
+        <v>-397.6160745031741</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9125795224331383</v>
+        <v>0.3812176425821034</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>513.4719587409659</v>
+        <v>641.2002798669871</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3297463560100672</v>
+        <v>0.2587866443275468</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>638.0116419197186</v>
+        <v>1017.209508583964</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2888396756675856</v>
+        <v>0.1128508367266357</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-227.7595060970959</v>
+        <v>-438.1868571141185</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6739018186947257</v>
+        <v>0.4561967202327414</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-228.7681623196863</v>
+        <v>-198.1938500063425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1345583255472953</v>
+        <v>0.2398739590743439</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-527.3325570372938</v>
+        <v>-1084.136801374265</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1627557622134084</v>
+        <v>0.008531416788984897</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11.12870355009493</v>
+        <v>-18.99832685730098</v>
       </c>
       <c r="C11" t="n">
-        <v>0.522700632265662</v>
+        <v>0.3124389776415643</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-119.1227328129359</v>
+        <v>-347.4558342133732</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5356268258870895</v>
+        <v>0.08740802747532664</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120.2364343147341</v>
+        <v>-156.2244614320862</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4641245187205011</v>
+        <v>0.377311720961548</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1057770034068735</v>
+        <v>-0.1111067729595054</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5941288739958863</v>
+        <v>0.5924404532886434</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003621003106085185</v>
+        <v>-0.0006457435628033192</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1173482255408159</v>
+        <v>0.008508186442970713</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-55.92066223852262</v>
+        <v>-90.38266434861602</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4789772383061419</v>
+        <v>0.2948270594314783</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-20.76771536717373</v>
+        <v>-19.66163863016128</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3130778411397127</v>
+        <v>0.3769202707721604</v>
       </c>
     </row>
     <row r="18">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4322.789605767101</v>
+        <v>1212.74122900468</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1992308173872433</v>
+        <v>0.7461176233243629</v>
       </c>
     </row>
     <row r="19">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2524.441869597539</v>
+        <v>4153.015377931668</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5601497635786314</v>
+        <v>0.36827261291541</v>
       </c>
     </row>
   </sheetData>
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12160.6039723738</v>
+        <v>13203.84789468092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005500324989901609</v>
+        <v>0.008219129577689634</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1506.127738630056</v>
+        <v>100.041724754647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5455062339827179</v>
+        <v>0.9727197627422357</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1457.753363261612</v>
+        <v>-1711.003246022227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1548574163322654</v>
+        <v>0.1346862030211319</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.643363958318957</v>
+        <v>-279.0756570378114</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9948835620519364</v>
+        <v>0.546159993488387</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>555.6636846039842</v>
+        <v>85.78569514897941</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2804698312517625</v>
+        <v>0.8808405684029295</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.2607751697717</v>
+        <v>931.2919904589254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6625624696907565</v>
+        <v>0.1594501676542281</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-421.1395013515601</v>
+        <v>-506.8484342319356</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4307246222643267</v>
+        <v>0.3998807761500167</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-125.8090174879819</v>
+        <v>-152.9327953864697</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4097062470230906</v>
+        <v>0.3766765829965143</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-707.2368537679188</v>
+        <v>-1076.589075761794</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05702607042342973</v>
+        <v>0.01019284739401679</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.016053623546841</v>
+        <v>-18.89844302491559</v>
       </c>
       <c r="C11" t="n">
-        <v>0.722448058281761</v>
+        <v>0.3228663870757805</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.337321557329261</v>
+        <v>-65.28528783352567</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9817871459204212</v>
+        <v>0.7608098605229299</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.14228888124302</v>
+        <v>-58.2637849565321</v>
       </c>
       <c r="C13" t="n">
-        <v>0.753249905456065</v>
+        <v>0.7543886345286422</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03649252035514203</v>
+        <v>-0.3092353265664597</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8503037524739152</v>
+        <v>0.1455886541104733</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.000313972810608717</v>
+        <v>-0.0007151154086428445</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1642088159754599</v>
+        <v>0.00509555212352392</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-77.37395637940345</v>
+        <v>14.96393856129455</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3143862146624681</v>
+        <v>0.8690392751997569</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-12.74910313570064</v>
+        <v>2.741454652390585</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5220830887415211</v>
+        <v>0.9038830692564728</v>
       </c>
     </row>
     <row r="18">
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5065.48778420169</v>
+        <v>3397.136130592146</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1288778501901627</v>
+        <v>0.3741906007138408</v>
       </c>
     </row>
     <row r="19">
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2391.495870888664</v>
+        <v>-179.1940446403485</v>
       </c>
       <c r="C19" t="n">
-        <v>0.574019113245829</v>
+        <v>0.9706672060030752</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Dresden.xlsx
+++ b/outputs/ML_Results/dist_commute/Dresden.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ36192251" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ36918241" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ37657817" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ38405107" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ39153922" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ39898314" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ40641445" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ41382860" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ42109900" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ29467270" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ30189971" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ30893713" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ31592945" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ32322825" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ33008604" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ33733539" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ34453102" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ35163028" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Dresden.xlsx
+++ b/outputs/ML_Results/dist_commute/Dresden.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ29467270" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ30189971" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ30893713" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ31592945" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ32322825" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ33008604" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ33733539" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ34453102" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ35163028" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ57021258" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ57223771" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ57437976" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ57677187" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ57930359" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ58173608" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ58414211" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ58667553" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ58907326" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15798.35021830113</v>
+        <v>12654.80655502772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00130826880168344</v>
+        <v>1.015458586128842e-05</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>562.8307490067863</v>
+        <v>525.8286058607587</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8454668248672412</v>
+        <v>0.8554708741889628</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-560.15223966082</v>
+        <v>-602.3537594227233</v>
       </c>
       <c r="C4" t="n">
-        <v>0.625461169767267</v>
+        <v>0.5992046449572969</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.8979555213356</v>
+        <v>98.51652920920026</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8062841891896975</v>
+        <v>0.8289264503555902</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>740.386716656194</v>
+        <v>763.3000821157693</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1986027822271912</v>
+        <v>0.1844477810054138</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>932.7129093378437</v>
+        <v>956.5346687617637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.151350790010013</v>
+        <v>0.140697964119351</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-474.8066959137167</v>
+        <v>-455.4904128360366</v>
       </c>
       <c r="C8" t="n">
-        <v>0.428763974701366</v>
+        <v>0.4473339979920369</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-270.2673933516769</v>
+        <v>-270.4088174111098</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1188050938073003</v>
+        <v>0.1185589125879124</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1386.041768157643</v>
+        <v>-1383.578276828217</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008832822431683281</v>
+        <v>0.0009002515004570287</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.388487766076555</v>
+        <v>-6.171807068291599</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7798790914025253</v>
+        <v>0.7485327194032922</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-213.5848007078486</v>
+        <v>-148.3274771777266</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2996893857094242</v>
+        <v>0.4314039575048928</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.87729363056673</v>
+        <v>120.7761236523663</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8641278679038458</v>
+        <v>0.3877307085281695</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0930102734664629</v>
+        <v>-0.1895826592743213</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6563185785001752</v>
+        <v>0.2629358032465723</v>
       </c>
     </row>
     <row r="15">
@@ -635,62 +635,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003085715823923598</v>
+        <v>-0.0003431829327021435</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2251786441166439</v>
+        <v>0.1708215661740087</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-69.36795773823057</v>
+        <v>-7.751704906899704</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4305863342009894</v>
+        <v>0.6087774632255026</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-20.85727137847624</v>
+        <v>-576.1176765758348</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3538124255119793</v>
+        <v>0.8743458665200308</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>162.673375970327</v>
+        <v>440.8413522908882</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9655109709105607</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3475.300947910908</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4635257823796862</v>
+        <v>0.8733695312369301</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14557.98379920083</v>
+        <v>12445.37819396769</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003362134452047049</v>
+        <v>1.264408528619493e-05</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>786.2842400043954</v>
+        <v>769.6474989648547</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7877650948405135</v>
+        <v>0.7920827229871795</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-927.299725116537</v>
+        <v>-944.8316066428567</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4299123495317949</v>
+        <v>0.4209253183710241</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-95.9529382550931</v>
+        <v>-102.8928815082207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8376607197467728</v>
+        <v>0.8259836795378104</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406.3575882667608</v>
+        <v>422.079435378313</v>
       </c>
       <c r="C6" t="n">
-        <v>0.480420076060219</v>
+        <v>0.4628646419893827</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>774.2794954361593</v>
+        <v>789.1859201500376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.235208026676025</v>
+        <v>0.2257433666890107</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-532.1044316832113</v>
+        <v>-521.9116211815342</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3784715354508292</v>
+        <v>0.3872881892362452</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-345.7846508237296</v>
+        <v>-347.6071141804857</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04522045409866911</v>
+        <v>0.04399774589954913</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-830.6100833329418</v>
+        <v>-835.7684545853707</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04748865951578837</v>
+        <v>0.04600797513074781</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-16.10584011838853</v>
+        <v>-16.63988728458456</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4061094070738397</v>
+        <v>0.3899299998964474</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-40.04810611163168</v>
+        <v>6.802918787924042</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8544263511750344</v>
+        <v>0.9726980779308956</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-52.64721212442679</v>
+        <v>8.167891624018907</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7800015069069096</v>
+        <v>0.9559300388207848</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1331511738240725</v>
+        <v>-0.1967923518702848</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5304939375853123</v>
+        <v>0.2565569809120248</v>
       </c>
     </row>
     <row r="15">
@@ -905,62 +892,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0006406548880680535</v>
+        <v>-0.0006600731585933858</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01135507107442814</v>
+        <v>0.008347282453137607</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-46.12986449269653</v>
+        <v>3.275515516937659</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6029461613440426</v>
+        <v>0.8298157358699058</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.509049006263432</v>
+        <v>4294.184449142842</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8086565454960186</v>
+        <v>0.2433514465379372</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4842.742939705791</v>
+        <v>-613.5330338388469</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2060892200354891</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1404.219077379102</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7716890431535443</v>
+        <v>0.8320417990952313</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18313.71709205536</v>
+        <v>13869.34885717138</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001910245975573925</v>
+        <v>6.142380644610242e-07</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>391.1234072885252</v>
+        <v>338.4947322893073</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8912878647388535</v>
+        <v>0.905836908824503</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-598.048158704386</v>
+        <v>-653.5785133041209</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5962160515981906</v>
+        <v>0.5622015433234382</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-234.0375221088433</v>
+        <v>-252.3975758933335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6011166723994186</v>
+        <v>0.5726521015297601</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>420.0042115980208</v>
+        <v>438.5193300968281</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4578405300905012</v>
+        <v>0.4380984221516789</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.1426767062612</v>
+        <v>427.4993827533242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5425460147116894</v>
+        <v>0.507395413692854</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-686.3891399199457</v>
+        <v>-686.0029985210697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2442330405777726</v>
+        <v>0.2445361596106951</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-65.30109199047011</v>
+        <v>-58.07441387818584</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7059636211648029</v>
+        <v>0.7370620799125134</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1153.93719733207</v>
+        <v>-1157.63241072825</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004972709813555206</v>
+        <v>0.004837882892310981</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.480590549335599</v>
+        <v>-3.385854098193793</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8954885386036695</v>
+        <v>0.8575787363263199</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-244.1892314297187</v>
+        <v>-150.0060834389444</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2465325962053486</v>
+        <v>0.4359271985112719</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-175.4564482771578</v>
+        <v>-47.81660270108747</v>
       </c>
       <c r="C13" t="n">
-        <v>0.335880703230064</v>
+        <v>0.7338750965060147</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04320798371999343</v>
+        <v>-0.08959630511966299</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8324873622476835</v>
+        <v>0.5867760964774309</v>
       </c>
     </row>
     <row r="15">
@@ -1175,62 +1149,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0007912823754953979</v>
+        <v>-0.0008408122973893793</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001505586904122316</v>
+        <v>0.0006093242449214197</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-97.31458136700955</v>
+        <v>-8.173115348927716</v>
       </c>
       <c r="C16" t="n">
-        <v>0.271230580929042</v>
+        <v>0.5899293171403277</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-26.54167284226201</v>
+        <v>3710.808951827725</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2393222625767866</v>
+        <v>0.3021672934638098</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4737.536811591177</v>
+        <v>-1492.881911579936</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2023029059219665</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2793.118701629709</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.560261572679593</v>
+        <v>0.593612246595697</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19959.47676704017</v>
+        <v>15929.54650904318</v>
       </c>
       <c r="C2" t="n">
-        <v>6.979625821589904e-05</v>
+        <v>5.500796700237578e-08</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-662.4802440838935</v>
+        <v>-776.4454647480188</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8497731365610367</v>
+        <v>0.8242263394703233</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1542.633041352448</v>
+        <v>-1594.130043612894</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1856290158524664</v>
+        <v>0.1709532669616237</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-200.4256213139308</v>
+        <v>-218.3195845774327</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6731265012286742</v>
+        <v>0.6456187121717458</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>278.9456213839128</v>
+        <v>300.007469201438</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6373746625892838</v>
+        <v>0.611950517727043</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421.4485816272693</v>
+        <v>439.9690163147653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5233245409114219</v>
+        <v>0.5050641172715036</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-896.4804001119302</v>
+        <v>-907.38870309732</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1462162803338491</v>
+        <v>0.1413080190878206</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-276.539824507841</v>
+        <v>-274.3340842340119</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1148045610599562</v>
+        <v>0.1176927359014808</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-960.8113534526498</v>
+        <v>-970.7193862027092</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02443334422959999</v>
+        <v>0.02296320967063097</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.129595691309153</v>
+        <v>-3.909743606684571</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8756303527454611</v>
+        <v>0.8448617448032123</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-273.3448770014999</v>
+        <v>-190.2571109598692</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2081673136724192</v>
+        <v>0.3421832080919293</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-73.08186901775241</v>
+        <v>43.81423032316386</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6984529078072452</v>
+        <v>0.7659680481160019</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1775170118733459</v>
+        <v>-0.3039715757265475</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4106338087292304</v>
+        <v>0.08069603941177447</v>
       </c>
     </row>
     <row r="15">
@@ -1445,62 +1406,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0005464673990377193</v>
+        <v>-0.0005964439331961394</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03472697935034761</v>
+        <v>0.01880843168047194</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-90.18711057363005</v>
+        <v>-17.96496457352893</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3218239108761586</v>
+        <v>0.2530743098911957</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-34.81098286108484</v>
+        <v>1733.311054384777</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1328417700065999</v>
+        <v>0.6426930275108946</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2716.236611685341</v>
+        <v>130.3381663185745</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4822820505296171</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4074.072655283376</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4079672752768821</v>
+        <v>0.9641185075011707</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17243.2019954595</v>
+        <v>12390.96584010837</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004877496057347425</v>
+        <v>1.942450065117368e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>731.5651276446889</v>
+        <v>676.8371914415673</v>
       </c>
       <c r="C3" t="n">
-        <v>0.803612568632104</v>
+        <v>0.8180473473441906</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1787.546224580489</v>
+        <v>-1852.491633328832</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1229154032979477</v>
+        <v>0.1095843801458486</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-127.2975276919486</v>
+        <v>-137.8439478376009</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7857418987171426</v>
+        <v>0.7684807116738159</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>990.8809324009993</v>
+        <v>997.7996588792349</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09482423815889865</v>
+        <v>0.09258684776761655</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1123.018092510615</v>
+        <v>1140.711975395292</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08870135113087714</v>
+        <v>0.08377520689180427</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-273.0259492823749</v>
+        <v>-283.4667721424244</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6541413040940165</v>
+        <v>0.6418526425150521</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-399.0267471389188</v>
+        <v>-398.2742379279566</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02009560828606623</v>
+        <v>0.02035268485649046</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-979.5508816996276</v>
+        <v>-977.4968770131156</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02043481534075004</v>
+        <v>0.02072159434579133</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21.17024929310397</v>
+        <v>-22.94283618552107</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2771452835119815</v>
+        <v>0.2376773067529532</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-140.0895105694069</v>
+        <v>-35.59326645356214</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5145340839975223</v>
+        <v>0.8565870195384169</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-40.37841133466986</v>
+        <v>99.29475791560083</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8268270482416007</v>
+        <v>0.4915094893982511</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.05034595189891523</v>
+        <v>-0.2008611468315217</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8126162481186034</v>
+        <v>0.2442492035181692</v>
       </c>
     </row>
     <row r="15">
@@ -1715,62 +1663,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002882956608582873</v>
+        <v>-0.0003398584486150687</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2684772547134719</v>
+        <v>0.1862268441806762</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-107.887762446373</v>
+        <v>1.313681596137716</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2249510773887549</v>
+        <v>0.9318769534759584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-19.08903693275545</v>
+        <v>335.0150146520481</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4019668594072798</v>
+        <v>0.9281081802001963</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1588.011150154118</v>
+        <v>-530.5039978957266</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6802606108401488</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4183.757835958642</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3848435791684052</v>
+        <v>0.8520459774827207</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19125.08858596341</v>
+        <v>14139.21825313247</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001238257061071308</v>
+        <v>1.135905824276164e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1297.593615340677</v>
+        <v>1282.569666388434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6835240060749659</v>
+        <v>0.6870498320009855</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1101.745070786171</v>
+        <v>-1167.472984637836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3271434065838468</v>
+        <v>0.2986753647085155</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-47.16975772618957</v>
+        <v>-59.07770079667188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9195580517896391</v>
+        <v>0.8993464754560782</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>188.1008635503797</v>
+        <v>215.4691828786318</v>
       </c>
       <c r="C6" t="n">
-        <v>0.749367922429566</v>
+        <v>0.7142604538246297</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>637.1627552579998</v>
+        <v>662.1863938001677</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3371601273776612</v>
+        <v>0.3184061091299216</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-831.0905669563322</v>
+        <v>-827.9115786163984</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1704872044043855</v>
+        <v>0.1722086331818947</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-189.0544138895315</v>
+        <v>-188.4425278607638</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2710201382217571</v>
+        <v>0.2726670368279176</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-993.6220770430151</v>
+        <v>-1002.5720995342</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01902199437739283</v>
+        <v>0.01797874797873251</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.710202784224187</v>
+        <v>-9.821706213045765</v>
       </c>
       <c r="C11" t="n">
-        <v>0.655389224617158</v>
+        <v>0.6144935998922219</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-233.2324942685649</v>
+        <v>-129.2680902044351</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2790064693895269</v>
+        <v>0.5144664568931807</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-153.2466663924851</v>
+        <v>-12.98371185923376</v>
       </c>
       <c r="C13" t="n">
-        <v>0.403818483884378</v>
+        <v>0.9282280126910001</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03671804653782298</v>
+        <v>-0.1933798795575495</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8640274851381919</v>
+        <v>0.2632737171423715</v>
       </c>
     </row>
     <row r="15">
@@ -1985,62 +1920,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0006745659862598608</v>
+        <v>-0.0007282310543464557</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007918786064973492</v>
+        <v>0.003631829935519588</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-110.0904790151704</v>
+        <v>-5.626465731015415</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2173254123676986</v>
+        <v>0.7210390890510536</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-26.72841145777673</v>
+        <v>4623.354652418448</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2504374740292321</v>
+        <v>0.21566347244279</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5978.899811934401</v>
+        <v>-1440.956577933202</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1245193812490604</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3302.084322006015</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4926246248854456</v>
+        <v>0.6188097907680865</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14861.41128022537</v>
+        <v>13692.01077817826</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00231013492066347</v>
+        <v>2.033077583558161e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.637641648187</v>
+        <v>120.2906422215187</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9641533061698273</v>
+        <v>0.9669769569358551</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1534.439160091352</v>
+        <v>-1553.562034427176</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2070756026304187</v>
+        <v>0.2006875124055642</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-352.9940018516627</v>
+        <v>-356.0364537475193</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4423094762402402</v>
+        <v>0.4381141626223013</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>632.8734144110139</v>
+        <v>636.8364631646833</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2749953287019866</v>
+        <v>0.2717085243693272</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>806.9416065000462</v>
+        <v>813.7597277832435</v>
       </c>
       <c r="C7" t="n">
-        <v>0.220499105794987</v>
+        <v>0.2161881477132486</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-478.3135979080709</v>
+        <v>-477.1251154047747</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4256729913189803</v>
+        <v>0.4266523020787791</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-210.9633549330339</v>
+        <v>-211.2971032339785</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2172235248696477</v>
+        <v>0.2163274956970242</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-958.4876034046493</v>
+        <v>-959.0392098123343</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02161633247123561</v>
+        <v>0.02149442327103723</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-39.833998682025</v>
+        <v>-40.0573996856737</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03916316702861192</v>
+        <v>0.03786533574434359</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-216.4757582646897</v>
+        <v>-191.3934299059438</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3042318502060045</v>
+        <v>0.3213853966591477</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1675194050153319</v>
+        <v>32.94866100232152</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9992589566296759</v>
+        <v>0.8174308628370329</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1792879044566663</v>
+        <v>-0.2154898609429938</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3935055212930334</v>
+        <v>0.2082069279703903</v>
       </c>
     </row>
     <row r="15">
@@ -2255,62 +2177,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.000635010967128204</v>
+        <v>-0.000649691421149077</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0116152261230023</v>
+        <v>0.008441421092858866</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-25.96750825021268</v>
+        <v>0.7688883954949084</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7661497334747684</v>
+        <v>0.9598413919232038</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.167493503360301</v>
+        <v>4585.631189148373</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8534217481335622</v>
+        <v>0.2152975416287136</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4869.526333188998</v>
+        <v>636.6251220040517</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202776206933706</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1779.955659586845</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7099776931354955</v>
+        <v>0.823261249225434</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18960.3107146841</v>
+        <v>14836.41745504737</v>
       </c>
       <c r="C2" t="n">
-        <v>9.994742122128452e-05</v>
+        <v>2.226680263542194e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-628.4482688805256</v>
+        <v>-640.7875914778956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8848756472192159</v>
+        <v>0.8826353899282275</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-642.4350973768777</v>
+        <v>-679.7429467044969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5911993599948975</v>
+        <v>0.5696843092174353</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-397.6160745031741</v>
+        <v>-408.5333547702563</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3812176425821034</v>
+        <v>0.3681768002964401</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>641.2002798669871</v>
+        <v>669.3727004532036</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2587866443275468</v>
+        <v>0.2379468205067128</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1017.209508583964</v>
+        <v>1038.717616427496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1128508367266357</v>
+        <v>0.105281891906647</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-438.1868571141185</v>
+        <v>-441.2229813689578</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4561967202327414</v>
+        <v>0.4530939545487318</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-198.1938500063425</v>
+        <v>-197.1299494371393</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2398739590743439</v>
+        <v>0.2424141304692952</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1084.136801374265</v>
+        <v>-1081.871145104284</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008531416788984897</v>
+        <v>0.008671512539027997</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.99832685730098</v>
+        <v>-20.06176261751524</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3124389776415643</v>
+        <v>0.2854520763494837</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-347.4558342133732</v>
+        <v>-262.0178148635239</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08740802747532664</v>
+        <v>0.1592947603129973</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-156.2244614320862</v>
+        <v>-40.37808029061761</v>
       </c>
       <c r="C13" t="n">
-        <v>0.377311720961548</v>
+        <v>0.7700509484712359</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1111067729595054</v>
+        <v>-0.2381516078188152</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5924404532886434</v>
+        <v>0.1575957457854782</v>
       </c>
     </row>
     <row r="15">
@@ -2525,62 +2434,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0006457435628033192</v>
+        <v>-0.0006899417227029155</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008508186442970713</v>
+        <v>0.004329247861811781</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-90.38266434861602</v>
+        <v>-2.319851508228267</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2948270594314783</v>
+        <v>0.8760237886166615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-19.66163863016128</v>
+        <v>145.8960902847934</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3769202707721604</v>
+        <v>0.9677162138117161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1212.74122900468</v>
+        <v>264.3586617601798</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7461176233243629</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4153.015377931668</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.36827261291541</v>
+        <v>0.9232404641584517</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13203.84789468092</v>
+        <v>13882.17924808569</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008219129577689634</v>
+        <v>9.699419130888833e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.041724754647</v>
+        <v>105.9443473902058</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9727197627422357</v>
+        <v>0.9710979825544073</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1711.003246022227</v>
+        <v>-1703.669641461632</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1346862030211319</v>
+        <v>0.1359221141331552</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-279.0756570378114</v>
+        <v>-276.4616286671486</v>
       </c>
       <c r="C5" t="n">
-        <v>0.546159993488387</v>
+        <v>0.5495424844327792</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.78569514897941</v>
+        <v>82.71004347975682</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8808405684029295</v>
+        <v>0.884979431705523</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>931.2919904589254</v>
+        <v>929.4221052258871</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1594501676542281</v>
+        <v>0.1600724050403009</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-506.8484342319356</v>
+        <v>-506.2965032709257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3998807761500167</v>
+        <v>0.4002118093156899</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-152.9327953864697</v>
+        <v>-152.5789125861462</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3766765829965143</v>
+        <v>0.377567673884396</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1076.589075761794</v>
+        <v>-1076.740043729045</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01019284739401679</v>
+        <v>0.01015408949558118</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.89844302491559</v>
+        <v>-18.81183141074028</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3228663870757805</v>
+        <v>0.3247257651645502</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-65.28528783352567</v>
+        <v>-80.16006394609037</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7608098605229299</v>
+        <v>0.6802274094144338</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-58.2637849565321</v>
+        <v>-77.71336863749315</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7543886345286422</v>
+        <v>0.5895678079391748</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3092353265664597</v>
+        <v>-0.288478143140911</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1455886541104733</v>
+        <v>0.09179980260895179</v>
       </c>
     </row>
     <row r="15">
@@ -2795,62 +2691,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0007151154086428445</v>
+        <v>-0.0007072609080096492</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00509555212352392</v>
+        <v>0.004790016310967414</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.96393856129455</v>
+        <v>-0.06218226050793496</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8690392751997569</v>
+        <v>0.9967002715083642</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.741454652390585</v>
+        <v>3559.726967921481</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9038830692564728</v>
+        <v>0.3349736684703777</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3397.136130592146</v>
+        <v>473.592134671354</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3741906007138408</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-179.1940446403485</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9706672060030752</v>
+        <v>0.8675717637771977</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Dresden.xlsx
+++ b/outputs/ML_Results/dist_commute/Dresden.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ57021258" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ57223771" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ57437976" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ57677187" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ57930359" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ58173608" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ58414211" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ58667553" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ58907326" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ57996469" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ58223328" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ58486834" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ58716526" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ58944872" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ59183516" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ59415426" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ59636746" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ59861821" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12654.80655502772</v>
+        <v>12654.80655453255</v>
       </c>
       <c r="C2" t="n">
-        <v>1.015458586128842e-05</v>
+        <v>1.015458588235025e-05</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525.8286058607587</v>
+        <v>525.8286058593537</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8554708741889628</v>
+        <v>0.8554708741888946</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-602.3537594227233</v>
+        <v>-602.3537594362393</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5992046449572969</v>
+        <v>0.5992046449480837</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.51652920920026</v>
+        <v>98.51652919652469</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8289264503555902</v>
+        <v>0.8289264503744562</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>763.3000821157693</v>
+        <v>763.3000821229535</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1844477810054138</v>
+        <v>0.184447781002503</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>956.5346687617637</v>
+        <v>956.5346687753158</v>
       </c>
       <c r="C7" t="n">
-        <v>0.140697964119351</v>
+        <v>0.1406979641145109</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-455.4904128360366</v>
+        <v>-455.4904128334509</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4473339979920369</v>
+        <v>0.44733399799435</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-270.4088174111098</v>
+        <v>-270.4088174062383</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1185589125879124</v>
+        <v>0.1185589125902361</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1383.578276828217</v>
+        <v>-1383.578276828428</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0009002515004570287</v>
+        <v>0.0009002515004566258</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.171807068291599</v>
+        <v>-6.171807067648578</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7485327194032922</v>
+        <v>0.7485327194304234</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-148.3274771777266</v>
+        <v>-148.3274771683082</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4314039575048928</v>
+        <v>0.4314039575398749</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120.7761236523663</v>
+        <v>120.7761236767189</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3877307085281695</v>
+        <v>0.3877307084223064</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1895826592743213</v>
+        <v>-18.9582659274128</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2629358032465723</v>
+        <v>0.2629358032470539</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003431829327021435</v>
+        <v>-343.1829329235862</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1708215661740087</v>
+        <v>0.1708215659239181</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-7.751704906899704</v>
+        <v>-7.751704906899699</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6087774632255026</v>
+        <v>0.6087774632255019</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-576.1176765758348</v>
+        <v>-5.761176765758794</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8743458665200308</v>
+        <v>0.8743458665200211</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>440.8413522908882</v>
+        <v>4.408413522909122</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8733695312369301</v>
+        <v>0.8733695312369232</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12445.37819396769</v>
+        <v>12445.37819360472</v>
       </c>
       <c r="C2" t="n">
-        <v>1.264408528619493e-05</v>
+        <v>1.264408530193113e-05</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>769.6474989648547</v>
+        <v>769.6474990010278</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7920827229871795</v>
+        <v>0.7920827229872828</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-944.8316066428567</v>
+        <v>-944.8316066361522</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4209253183710241</v>
+        <v>0.4209253183748061</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-102.8928815082207</v>
+        <v>-102.8928815039882</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8259836795378104</v>
+        <v>0.8259836795455218</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>422.079435378313</v>
+        <v>422.0794353873765</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4628646419893827</v>
+        <v>0.462864641980955</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>789.1859201500376</v>
+        <v>789.185920148625</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2257433666890107</v>
+        <v>0.2257433666897594</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-521.9116211815342</v>
+        <v>-521.91162119214</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3872881892362452</v>
+        <v>0.3872881892273455</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-347.6071141804857</v>
+        <v>-347.6071141779964</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04399774589954913</v>
+        <v>0.04399774590021314</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-835.7684545853707</v>
+        <v>-835.7684545785978</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04600797513074781</v>
+        <v>0.04600797513196252</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-16.63988728458456</v>
+        <v>-16.63988728605123</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3899299998964474</v>
+        <v>0.3899299998479129</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.802918787924042</v>
+        <v>6.802918802984522</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9726980779308956</v>
+        <v>0.9726980778708301</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.167891624018907</v>
+        <v>8.167891670223739</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9559300388207848</v>
+        <v>0.9559300385707562</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1967923518702848</v>
+        <v>-19.67923518705004</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2565569809120248</v>
+        <v>0.2565569809114681</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0006600731585933858</v>
+        <v>-660.0731586000879</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008347282453137607</v>
+        <v>0.00834728245408526</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.275515516937659</v>
+        <v>3.275515516938212</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8298157358699058</v>
+        <v>0.8298157358698772</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4294.184449142842</v>
+        <v>42.94184449142844</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2433514465379372</v>
+        <v>0.2433514465379367</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-613.5330338388469</v>
+        <v>-6.135330338389119</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8320417990952313</v>
+        <v>0.832041799095214</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13869.34885717138</v>
+        <v>13869.34885733396</v>
       </c>
       <c r="C2" t="n">
-        <v>6.142380644610242e-07</v>
+        <v>6.142380637660318e-07</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338.4947322893073</v>
+        <v>338.4947322852213</v>
       </c>
       <c r="C3" t="n">
-        <v>0.905836908824503</v>
+        <v>0.905836908824305</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-653.5785133041209</v>
+        <v>-653.5785132857673</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5622015433234382</v>
+        <v>0.5622015433370698</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-252.3975758933335</v>
+        <v>-252.3975758941465</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5726521015297601</v>
+        <v>0.5726521015279111</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438.5193300968281</v>
+        <v>438.5193300977368</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4380984221516789</v>
+        <v>0.438098422151008</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>427.4993827533242</v>
+        <v>427.4993827565092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.507395413692854</v>
+        <v>0.5073954136900966</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-686.0029985210697</v>
+        <v>-686.0029985191795</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2445361596106951</v>
+        <v>0.2445361596116877</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-58.07441387818584</v>
+        <v>-58.07441388196204</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7370620799125134</v>
+        <v>0.7370620798999058</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1157.63241072825</v>
+        <v>-1157.632410730926</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004837882892310981</v>
+        <v>0.004837882892311727</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.385854098193793</v>
+        <v>-3.385854098194797</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8575787363263199</v>
+        <v>0.8575787363262666</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-150.0060834389444</v>
+        <v>-150.0060834320095</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4359271985112719</v>
+        <v>0.4359271985383075</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-47.81660270108747</v>
+        <v>-47.81660270239683</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7338750965060147</v>
+        <v>0.7338750964994535</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.08959630511966299</v>
+        <v>-8.959630511839853</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5867760964774309</v>
+        <v>0.5867760964829105</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0008408122973893793</v>
+        <v>-840.8122974146841</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0006093242449214197</v>
+        <v>0.0006093242452419955</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-8.173115348927716</v>
+        <v>-8.173115348929322</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5899293171403277</v>
+        <v>0.5899293171402598</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3710.808951827725</v>
+        <v>37.10808951827686</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3021672934638098</v>
+        <v>0.3021672934638149</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1492.881911579936</v>
+        <v>-14.92881911579944</v>
       </c>
       <c r="C18" t="n">
-        <v>0.593612246595697</v>
+        <v>0.593612246595695</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15929.54650904318</v>
+        <v>15929.54650859753</v>
       </c>
       <c r="C2" t="n">
-        <v>5.500796700237578e-08</v>
+        <v>5.50079669951556e-08</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-776.4454647480188</v>
+        <v>-776.445464660268</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8242263394703233</v>
+        <v>0.8242263394703625</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1594.130043612894</v>
+        <v>-1594.130043590092</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1709532669616237</v>
+        <v>0.1709532669661261</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-218.3195845774327</v>
+        <v>-218.3195845877593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6456187121717458</v>
+        <v>0.6456187121592416</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>300.007469201438</v>
+        <v>300.0074692165929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.611950517727043</v>
+        <v>0.6119505177069438</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>439.9690163147653</v>
+        <v>439.9690163363888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5050641172715036</v>
+        <v>0.505064117248988</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-907.38870309732</v>
+        <v>-907.3887030877681</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1413080190878206</v>
+        <v>0.1413080190918761</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-274.3340842340119</v>
+        <v>-274.334084233897</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1176927359014808</v>
+        <v>0.1176927359017373</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-970.7193862027092</v>
+        <v>-970.7193862048067</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02296320967063097</v>
+        <v>0.0229632096702777</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.909743606684571</v>
+        <v>-3.909743607291334</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8448617448032123</v>
+        <v>0.8448617447798908</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-190.2571109598692</v>
+        <v>-190.2571109272608</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3421832080919293</v>
+        <v>0.3421832081619088</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.81423032316386</v>
+        <v>43.81423033996922</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7659680481160019</v>
+        <v>0.7659680480278034</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3039715757265475</v>
+        <v>-30.39715757254216</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08069603941177447</v>
+        <v>0.08069603941283807</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0005964439331961394</v>
+        <v>-596.443933106881</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01880843168047194</v>
+        <v>0.01880843170299017</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-17.96496457352893</v>
+        <v>-17.96496457352871</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2530743098911957</v>
+        <v>0.2530743098912012</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1733.311054384777</v>
+        <v>17.33311054384771</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6426930275108946</v>
+        <v>0.6426930275108953</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>130.3381663185745</v>
+        <v>1.303381663185427</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9641185075011707</v>
+        <v>0.9641185075011794</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12390.96584010837</v>
+        <v>12390.9658404898</v>
       </c>
       <c r="C2" t="n">
-        <v>1.942450065117368e-05</v>
+        <v>1.942450062485806e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>676.8371914415673</v>
+        <v>676.8371915879062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8180473473441906</v>
+        <v>0.8180473473438155</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1852.491633328832</v>
+        <v>-1852.491633353965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1095843801458486</v>
+        <v>0.1095843801393413</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-137.8439478376009</v>
+        <v>-137.8439478335324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7684807116738159</v>
+        <v>0.7684807116814222</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>997.7996588792349</v>
+        <v>997.7996588754386</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09258684776761655</v>
+        <v>0.09258684776840309</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1140.711975395292</v>
+        <v>1140.711975406363</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08377520689180427</v>
+        <v>0.08377520688941467</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-283.4667721424244</v>
+        <v>-283.4667721512585</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6418526425150521</v>
+        <v>0.6418526425050119</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-398.2742379279566</v>
+        <v>-398.2742379135948</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02035268485649046</v>
+        <v>0.02035268485750009</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-977.4968770131156</v>
+        <v>-977.4968770065132</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02072159434579133</v>
+        <v>0.02072159434632594</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-22.94283618552107</v>
+        <v>-22.94283618362156</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2376773067529532</v>
+        <v>0.2376773068008554</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-35.59326645356214</v>
+        <v>-35.5932665065386</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8565870195384169</v>
+        <v>0.8565870193199496</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.29475791560083</v>
+        <v>99.29475788539821</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4915094893982511</v>
+        <v>0.4915094895373563</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2008611468315217</v>
+        <v>-20.08611468287531</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2442492035181692</v>
+        <v>0.244249203525054</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003398584486150687</v>
+        <v>-339.8584487351157</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1862268441806762</v>
+        <v>0.1862268440360935</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.313681596137716</v>
+        <v>1.313681596137233</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9318769534759584</v>
+        <v>0.9318769534759833</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.0150146520481</v>
+        <v>3.350150146520487</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9281081802001963</v>
+        <v>0.928108180200196</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-530.5039978957266</v>
+        <v>-5.305039978957478</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8520459774827207</v>
+        <v>0.8520459774827148</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14139.21825313247</v>
+        <v>14139.21825224628</v>
       </c>
       <c r="C2" t="n">
-        <v>1.135905824276164e-06</v>
+        <v>1.135905827624747e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1282.569666388434</v>
+        <v>1282.569666660287</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6870498320009855</v>
+        <v>0.6870498320012787</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1167.472984637836</v>
+        <v>-1167.472984617187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2986753647085155</v>
+        <v>0.298675364718093</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-59.07770079667188</v>
+        <v>-59.07770084554983</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8993464754560782</v>
+        <v>0.8993464753706228</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215.4691828786318</v>
+        <v>215.469182904211</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7142604538246297</v>
+        <v>0.7142604537936793</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>662.1863938001677</v>
+        <v>662.1863938019665</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3184061091299216</v>
+        <v>0.3184061091287627</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-827.9115786163984</v>
+        <v>-827.9115786112861</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1722086331818947</v>
+        <v>0.1722086331843686</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-188.4425278607638</v>
+        <v>-188.4425278577062</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2726670368279176</v>
+        <v>0.2726670368342283</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1002.5720995342</v>
+        <v>-1002.572099533571</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01797874797873251</v>
+        <v>0.01797874797878951</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.821706213045765</v>
+        <v>-9.821706213381965</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6144935998922219</v>
+        <v>0.6144935998795227</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-129.2680902044351</v>
+        <v>-129.2680901474257</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5144664568931807</v>
+        <v>0.514466457090035</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-12.98371185923376</v>
+        <v>-12.98371183853073</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9282280126910001</v>
+        <v>0.928228012804476</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1933798795575495</v>
+        <v>-19.33798795638559</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2632737171423715</v>
+        <v>0.2632737171261652</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0007282310543464557</v>
+        <v>-728.2310535774754</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003631829935519588</v>
+        <v>0.00363182996086596</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5.626465731015415</v>
+        <v>-5.626465731015765</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7210390890510536</v>
+        <v>0.7210390890510376</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4623.354652418448</v>
+        <v>46.23354652418404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.21566347244279</v>
+        <v>0.2156634724427939</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1440.956577933202</v>
+        <v>-14.40956577933166</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6188097907680865</v>
+        <v>0.6188097907680945</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13692.01077817826</v>
+        <v>13692.01077799699</v>
       </c>
       <c r="C2" t="n">
-        <v>2.033077583558161e-06</v>
+        <v>2.03307758901234e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.2906422215187</v>
+        <v>120.2906422445068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9669769569358551</v>
+        <v>0.9669769569356785</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1553.562034427176</v>
+        <v>-1553.562034428802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2006875124055642</v>
+        <v>0.2006875124044887</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-356.0364537475193</v>
+        <v>-356.0364537401894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4381141626223013</v>
+        <v>0.4381141626510113</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>636.8364631646833</v>
+        <v>636.8364631683611</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2717085243693272</v>
+        <v>0.2717085243696694</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>813.7597277832435</v>
+        <v>813.7597277814248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2161881477132486</v>
+        <v>0.2161881477135481</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-477.1251154047747</v>
+        <v>-477.1251154027282</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4266523020787791</v>
+        <v>0.4266523020799691</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-211.2971032339785</v>
+        <v>-211.2971032368207</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2163274956970242</v>
+        <v>0.2163274957047218</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-959.0392098123343</v>
+        <v>-959.039209814336</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02149442327103723</v>
+        <v>0.02149442327135329</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-40.0573996856737</v>
+        <v>-40.05739968605097</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03786533574434359</v>
+        <v>0.03786533573885548</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-191.3934299059438</v>
+        <v>-191.3934298929976</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3213853966591477</v>
+        <v>0.321385396725406</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.94866100232152</v>
+        <v>32.94866101166852</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8174308628370329</v>
+        <v>0.8174308627789456</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2154898609429938</v>
+        <v>-21.54898609439261</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2082069279703903</v>
+        <v>0.2082069279681709</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.000649691421149077</v>
+        <v>-649.6914212268771</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008441421092858866</v>
+        <v>0.008441421093863741</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7688883954949084</v>
+        <v>0.7688883954947761</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9598413919232038</v>
+        <v>0.9598413919232109</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4585.631189148373</v>
+        <v>45.85631189148407</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2152975416287136</v>
+        <v>0.21529754162871</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>636.6251220040517</v>
+        <v>6.366251220040589</v>
       </c>
       <c r="C18" t="n">
-        <v>0.823261249225434</v>
+        <v>0.8232612492254321</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14836.41745504737</v>
+        <v>14836.41745428437</v>
       </c>
       <c r="C2" t="n">
-        <v>2.226680263542194e-07</v>
+        <v>2.226680262549442e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-640.7875914778956</v>
+        <v>-640.7875915054033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8826353899282275</v>
+        <v>0.8826353899282691</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-679.7429467044969</v>
+        <v>-679.7429466978427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5696843092174353</v>
+        <v>0.5696843092207837</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-408.5333547702563</v>
+        <v>-408.5333547543494</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3681768002964401</v>
+        <v>0.3681768003065897</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>669.3727004532036</v>
+        <v>669.3727004481292</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2379468205067128</v>
+        <v>0.2379468205104645</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1038.717616427496</v>
+        <v>1038.717616420307</v>
       </c>
       <c r="C7" t="n">
-        <v>0.105281891906647</v>
+        <v>0.1052818919087319</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-441.2229813689578</v>
+        <v>-441.2229813640804</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4530939545487318</v>
+        <v>0.4530939545547649</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-197.1299494371393</v>
+        <v>-197.1299494435993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2424141304692952</v>
+        <v>0.2424141304497586</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1081.871145104284</v>
+        <v>-1081.87114510686</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008671512539027997</v>
+        <v>0.008671512538720361</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-20.06176261751524</v>
+        <v>-20.06176261833582</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2854520763494837</v>
+        <v>0.2854520763371298</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-262.0178148635239</v>
+        <v>-262.0178148384881</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1592947603129973</v>
+        <v>0.1592947603405129</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-40.37808029061761</v>
+        <v>-40.37808027888352</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7700509484712359</v>
+        <v>0.7700509485418898</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2381516078188152</v>
+        <v>-23.81516078191662</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1575957457854782</v>
+        <v>0.1575957457848621</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0006899417227029155</v>
+        <v>-689.9417227500018</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004329247861811781</v>
+        <v>0.004329247857918699</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.319851508228267</v>
+        <v>-2.319851508228584</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8760237886166615</v>
+        <v>0.8760237886166449</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.8960902847934</v>
+        <v>1.458960902847483</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9677162138117161</v>
+        <v>0.9677162138117261</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>264.3586617601798</v>
+        <v>2.643586617603333</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9232404641584517</v>
+        <v>0.9232404641584067</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13882.17924808569</v>
+        <v>13882.17924816802</v>
       </c>
       <c r="C2" t="n">
-        <v>9.699419130888833e-07</v>
+        <v>9.699419116759966e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9443473902058</v>
+        <v>105.9443474042347</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9710979825544073</v>
+        <v>0.9710979825536383</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1703.669641461632</v>
+        <v>-1703.66964145935</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1359221141331552</v>
+        <v>0.1359221141346759</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-276.4616286671486</v>
+        <v>-276.4616286698509</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5495424844327792</v>
+        <v>0.5495424844217316</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.71004347975682</v>
+        <v>82.7100434786831</v>
       </c>
       <c r="C6" t="n">
-        <v>0.884979431705523</v>
+        <v>0.8849794317067603</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>929.4221052258871</v>
+        <v>929.4221052230439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1600724050403009</v>
+        <v>0.1600724050405427</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-506.2965032709257</v>
+        <v>-506.2965032713392</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4002118093156899</v>
+        <v>0.4002118093155861</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-152.5789125861462</v>
+        <v>-152.5789125864833</v>
       </c>
       <c r="C9" t="n">
-        <v>0.377567673884396</v>
+        <v>0.3775676738853192</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1076.740043729045</v>
+        <v>-1076.740043729088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01015408949558118</v>
+        <v>0.01015408949558505</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.81183141074028</v>
+        <v>-18.81183141073848</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3247257651645502</v>
+        <v>0.3247257651645915</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-80.16006394609037</v>
+        <v>-80.16006394714816</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6802274094144338</v>
+        <v>0.6802274094085388</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-77.71336863749315</v>
+        <v>-77.71336863851407</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5895678079391748</v>
+        <v>0.5895678079354294</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.288478143140911</v>
+        <v>-28.84781431406452</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09179980260895179</v>
+        <v>0.09179980260927098</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0007072609080096492</v>
+        <v>-707.2609081347016</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004790016310967414</v>
+        <v>0.004790016301342285</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.06218226050793496</v>
+        <v>-0.06218226050747799</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9967002715083642</v>
+        <v>0.9967002715083884</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3559.726967921481</v>
+        <v>35.59726967921461</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3349736684703777</v>
+        <v>0.3349736684703802</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>473.592134671354</v>
+        <v>4.735921346713663</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8675717637771977</v>
+        <v>0.8675717637771942</v>
       </c>
     </row>
   </sheetData>
